--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyeon2-400\Desktop\QTGameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{121FDCAD-081A-4AD8-B30A-60210F805515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84787F69-A9F7-472E-AC27-FF1F3EFAD478}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -17,26 +18,55 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,18 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,26 +139,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -148,30 +150,10 @@
     <t>롤 - 룰루 맞죠?</t>
   </si>
   <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Rare</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,59 +161,19 @@
     <t>다이슨 청소기</t>
   </si>
   <si>
-    <t>Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>죠죠</t>
   </si>
   <si>
     <t>페이트 - 길가메시</t>
   </si>
   <si>
-    <t>Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>블루아카이브</t>
   </si>
   <si>
     <t>몬티파이튼의 성배</t>
   </si>
   <si>
-    <t>Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>슈퍼 핫</t>
-  </si>
-  <si>
-    <t>Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cursed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cursed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cursed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cursed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cursed</t>
@@ -244,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -515,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A2A13769-D8D3-4D4B-945F-15731E55F1C6}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -534,8 +476,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="시트별저장버튼"/>
       <sheetName val="아이템 가격 밸런싱"/>
@@ -577,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ItemTable" displayName="ItemTable" ref="A2:L39" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A2:L39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA24BDB5-DDF7-40FB-BCDE-515F0D88994D}" name="ItemTable" displayName="ItemTable" ref="A2:L39" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A2:L39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{CF78D765-8251-42D4-BA28-A6466E01778B}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,1000),
@@ -588,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{D5AD95FC-D1CE-48A5-AA93-01BF766AF438}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{01B6A684-A706-4E39-9623-046AF7D3C3C4}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{0AD7F41E-77CC-4B54-9DCB-EC4CB9E40F35}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{FBDFBD56-5560-4DA3-ABA8-344172A6B88A}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{E96B9D2A-AC6E-4F78-BA2B-7F729DD0632C}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{8ACF0AAC-5055-4FA1-8404-27EBA0D1CE82}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{DB22CDA0-B0EF-444F-8303-9A2BC2FF560C}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{D56F65A9-D2E9-4AAC-805A-9E1AC53B87EF}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{4E23BD48-A821-44C2-AF80-A7C3E8FDF694}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{F6FA45D5-5141-4BEA-A15D-A60695B2B5A6}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{C9655F3F-769B-45E7-A956-E07E791ABCB5}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -638,7 +583,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -650,7 +595,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -697,6 +642,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -732,6 +694,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB1945B-ED03-4AC5-BCD1-6038AEE5FAE9}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -911,97 +890,97 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" t="e">
-        <f t="array" aca="1" ref="A3" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,10),
+      <c r="A3" cm="1">
+        <f t="array" ref="A3">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B3" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C3" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>10010</v>
+      </c>
+      <c r="C3">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>20010</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1016,41 +995,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>10</v>
       </c>
-      <c r="H3" t="e">
-        <f t="array" aca="1" ref="H3" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J3" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K3" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H3" cm="1">
+        <f t="array" ref="H3">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>하트 1개</v>
+      </c>
+      <c r="K3" s="3">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>0</v>
       </c>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" t="e">
-        <f t="array" aca="1" ref="A4" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D3=ItemTable[[#This Row],[GradeType]],A3+1,10),
+      <c r="A4" cm="1">
+        <f t="array" ref="A4">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D3=ItemTable[[#This Row],[GradeType]],A3+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D3=ItemTable[[#This Row],[GradeType]],A3+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D3=ItemTable[[#This Row],[GradeType]],A3+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D3=ItemTable[[#This Row],[GradeType]],A3+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D3=ItemTable[[#This Row],[GradeType]],A3+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D3=ItemTable[[#This Row],[GradeType]],A3+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B4" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C4" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>10011</v>
+      </c>
+      <c r="C4">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>20011</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1065,41 +1044,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>20</v>
       </c>
-      <c r="H4" t="e">
-        <f t="array" aca="1" ref="H4" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J4" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K4" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H4" cm="1">
+        <f t="array" ref="H4">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>하트 2개</v>
+      </c>
+      <c r="K4" s="3">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>0</v>
       </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" t="e">
-        <f t="array" aca="1" ref="A5" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D4=ItemTable[[#This Row],[GradeType]],A4+1,10),
+      <c r="A5" cm="1">
+        <f t="array" ref="A5">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D4=ItemTable[[#This Row],[GradeType]],A4+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D4=ItemTable[[#This Row],[GradeType]],A4+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D4=ItemTable[[#This Row],[GradeType]],A4+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D4=ItemTable[[#This Row],[GradeType]],A4+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D4=ItemTable[[#This Row],[GradeType]],A4+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D4=ItemTable[[#This Row],[GradeType]],A4+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B5" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C5" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>10020</v>
+      </c>
+      <c r="C5">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>20020</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -1114,41 +1093,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="H5" t="e">
-        <f t="array" aca="1" ref="H5" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J5" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K5" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H5" cm="1">
+        <f t="array" ref="H5">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>15 골드</v>
+      </c>
+      <c r="K5" s="3">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>0</v>
       </c>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" t="e">
-        <f t="array" aca="1" ref="A6" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D5=ItemTable[[#This Row],[GradeType]],A5+1,10),
+      <c r="A6" cm="1">
+        <f t="array" ref="A6">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D5=ItemTable[[#This Row],[GradeType]],A5+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D5=ItemTable[[#This Row],[GradeType]],A5+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D5=ItemTable[[#This Row],[GradeType]],A5+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D5=ItemTable[[#This Row],[GradeType]],A5+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D5=ItemTable[[#This Row],[GradeType]],A5+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D5=ItemTable[[#This Row],[GradeType]],A5+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B6" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C6" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>10021</v>
+      </c>
+      <c r="C6">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>20021</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -1163,41 +1142,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="H6" t="e">
-        <f t="array" aca="1" ref="H6" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J6" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K6" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H6" cm="1">
+        <f t="array" ref="H6">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>30 골드</v>
+      </c>
+      <c r="K6" s="3">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>0</v>
       </c>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" t="e">
-        <f t="array" aca="1" ref="A7" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D6=ItemTable[[#This Row],[GradeType]],A6+1,10),
+      <c r="A7" cm="1">
+        <f t="array" ref="A7">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D6=ItemTable[[#This Row],[GradeType]],A6+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D6=ItemTable[[#This Row],[GradeType]],A6+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D6=ItemTable[[#This Row],[GradeType]],A6+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D6=ItemTable[[#This Row],[GradeType]],A6+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D6=ItemTable[[#This Row],[GradeType]],A6+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D6=ItemTable[[#This Row],[GradeType]],A6+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B7" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C7" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>10022</v>
+      </c>
+      <c r="C7">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>20022</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>45</v>
@@ -1212,41 +1191,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="H7" t="e">
-        <f t="array" aca="1" ref="H7" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J7" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K7" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H7" cm="1">
+        <f t="array" ref="H7">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>45 골드</v>
+      </c>
+      <c r="K7" s="3">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>0</v>
       </c>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" t="e">
-        <f t="array" aca="1" ref="A8" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D7=ItemTable[[#This Row],[GradeType]],A7+1,10),
+      <c r="A8" cm="1">
+        <f t="array" ref="A8">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D7=ItemTable[[#This Row],[GradeType]],A7+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D7=ItemTable[[#This Row],[GradeType]],A7+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D7=ItemTable[[#This Row],[GradeType]],A7+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D7=ItemTable[[#This Row],[GradeType]],A7+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D7=ItemTable[[#This Row],[GradeType]],A7+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D7=ItemTable[[#This Row],[GradeType]],A7+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B8" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C8" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>10023</v>
+      </c>
+      <c r="C8">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>20023</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>60</v>
@@ -1261,41 +1240,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="H8" t="e">
-        <f t="array" aca="1" ref="H8" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J8" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K8" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H8" cm="1">
+        <f t="array" ref="H8">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>60 골드</v>
+      </c>
+      <c r="K8" s="3">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>0</v>
       </c>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" t="e">
-        <f t="array" aca="1" ref="A9" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D8=ItemTable[[#This Row],[GradeType]],A8+1,10),
+      <c r="A9" cm="1">
+        <f t="array" ref="A9">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D8=ItemTable[[#This Row],[GradeType]],A8+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D8=ItemTable[[#This Row],[GradeType]],A8+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D8=ItemTable[[#This Row],[GradeType]],A8+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D8=ItemTable[[#This Row],[GradeType]],A8+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D8=ItemTable[[#This Row],[GradeType]],A8+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D8=ItemTable[[#This Row],[GradeType]],A8+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B9" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C9" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>1000</v>
+      </c>
+      <c r="B9">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>11000</v>
+      </c>
+      <c r="C9">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>21000</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1310,41 +1289,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H9" t="e">
-        <f t="array" aca="1" ref="H9" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J9" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K9" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H9" cm="1">
+        <f t="array" ref="H9">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>6000</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>뾱뾱 슬리퍼</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>아무 능력이 없지만 이동할 때 뾱뾱 소리가 납니다.</v>
       </c>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" t="e">
-        <f t="array" aca="1" ref="A10" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D9=ItemTable[[#This Row],[GradeType]],A9+1,10),
+      <c r="A10" cm="1">
+        <f t="array" ref="A10">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D9=ItemTable[[#This Row],[GradeType]],A9+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D9=ItemTable[[#This Row],[GradeType]],A9+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D9=ItemTable[[#This Row],[GradeType]],A9+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D9=ItemTable[[#This Row],[GradeType]],A9+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D9=ItemTable[[#This Row],[GradeType]],A9+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D9=ItemTable[[#This Row],[GradeType]],A9+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B10" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C10" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>1001</v>
+      </c>
+      <c r="B10">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>11001</v>
+      </c>
+      <c r="C10">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>21001</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1359,43 +1338,43 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H10" t="e">
-        <f t="array" aca="1" ref="H10" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J10" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K10" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H10" cm="1">
+        <f t="array" ref="H10">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>6001</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>무지개빛 총공격</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>냥냥냥. 모든 탄환이 적을 관통합니다.</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" t="e">
-        <f t="array" aca="1" ref="A11" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D10=ItemTable[[#This Row],[GradeType]],A10+1,10),
+      <c r="A11" cm="1">
+        <f t="array" ref="A11">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D10=ItemTable[[#This Row],[GradeType]],A10+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D10=ItemTable[[#This Row],[GradeType]],A10+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D10=ItemTable[[#This Row],[GradeType]],A10+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D10=ItemTable[[#This Row],[GradeType]],A10+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D10=ItemTable[[#This Row],[GradeType]],A10+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D10=ItemTable[[#This Row],[GradeType]],A10+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B11" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C11" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>1002</v>
+      </c>
+      <c r="B11">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>11002</v>
+      </c>
+      <c r="C11">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>21002</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1410,41 +1389,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H11" t="e">
-        <f t="array" aca="1" ref="H11" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J11" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K11" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H11" cm="1">
+        <f t="array" ref="H11">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>6002</v>
+      </c>
+      <c r="J11" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>트럼펫</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>트럼펫 소리가 납니다. 공격력이 20%증가합니다.</v>
       </c>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" t="e">
-        <f t="array" aca="1" ref="A12" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D11=ItemTable[[#This Row],[GradeType]],A11+1,10),
+      <c r="A12" cm="1">
+        <f t="array" ref="A12">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D11=ItemTable[[#This Row],[GradeType]],A11+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D11=ItemTable[[#This Row],[GradeType]],A11+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D11=ItemTable[[#This Row],[GradeType]],A11+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D11=ItemTable[[#This Row],[GradeType]],A11+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D11=ItemTable[[#This Row],[GradeType]],A11+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D11=ItemTable[[#This Row],[GradeType]],A11+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B12" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C12" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>2000</v>
+      </c>
+      <c r="B12">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12000</v>
+      </c>
+      <c r="C12">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22000</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1459,41 +1438,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H12" t="e">
-        <f t="array" aca="1" ref="H12" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J12" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K12" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H12" cm="1">
+        <f t="array" ref="H12">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>7000</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>신성한 종</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>이동속도가 조금 빨라집니다.</v>
       </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" t="e">
-        <f t="array" aca="1" ref="A13" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D12=ItemTable[[#This Row],[GradeType]],A12+1,10),
+      <c r="A13" cm="1">
+        <f t="array" ref="A13">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D12=ItemTable[[#This Row],[GradeType]],A12+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D12=ItemTable[[#This Row],[GradeType]],A12+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D12=ItemTable[[#This Row],[GradeType]],A12+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D12=ItemTable[[#This Row],[GradeType]],A12+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D12=ItemTable[[#This Row],[GradeType]],A12+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D12=ItemTable[[#This Row],[GradeType]],A12+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B13" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C13" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>2001</v>
+      </c>
+      <c r="B13">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12001</v>
+      </c>
+      <c r="C13">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22001</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1508,41 +1487,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H13" t="e">
-        <f t="array" aca="1" ref="H13" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J13" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K13" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H13" cm="1">
+        <f t="array" ref="H13">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>7001</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>미정1</v>
+      </c>
+      <c r="K13" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>공격 속도 15% 상승</v>
       </c>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" t="e">
-        <f t="array" aca="1" ref="A14" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D13=ItemTable[[#This Row],[GradeType]],A13+1,10),
+      <c r="A14" cm="1">
+        <f t="array" ref="A14">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D13=ItemTable[[#This Row],[GradeType]],A13+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D13=ItemTable[[#This Row],[GradeType]],A13+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D13=ItemTable[[#This Row],[GradeType]],A13+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D13=ItemTable[[#This Row],[GradeType]],A13+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D13=ItemTable[[#This Row],[GradeType]],A13+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D13=ItemTable[[#This Row],[GradeType]],A13+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B14" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C14" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>2002</v>
+      </c>
+      <c r="B14">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12002</v>
+      </c>
+      <c r="C14">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22002</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1557,41 +1536,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H14" t="e">
-        <f t="array" aca="1" ref="H14" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J14" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K14" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H14" cm="1">
+        <f t="array" ref="H14">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>7002</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>무언가 담긴병</v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>차징 속도 20% 상승</v>
       </c>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" t="e">
-        <f t="array" aca="1" ref="A15" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D14=ItemTable[[#This Row],[GradeType]],A14+1,10),
+      <c r="A15" cm="1">
+        <f t="array" ref="A15">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D14=ItemTable[[#This Row],[GradeType]],A14+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D14=ItemTable[[#This Row],[GradeType]],A14+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D14=ItemTable[[#This Row],[GradeType]],A14+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D14=ItemTable[[#This Row],[GradeType]],A14+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D14=ItemTable[[#This Row],[GradeType]],A14+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D14=ItemTable[[#This Row],[GradeType]],A14+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B15" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C15" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>2003</v>
+      </c>
+      <c r="B15">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12003</v>
+      </c>
+      <c r="C15">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22003</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1606,41 +1585,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H15" t="e">
-        <f t="array" aca="1" ref="H15" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J15" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K15" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H15" cm="1">
+        <f t="array" ref="H15">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>7003</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>아저씨의 금구슬</v>
+      </c>
+      <c r="K15" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>공 크기가 3 커집니다.</v>
       </c>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" t="e">
-        <f t="array" aca="1" ref="A16" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D15=ItemTable[[#This Row],[GradeType]],A15+1,10),
+      <c r="A16" cm="1">
+        <f t="array" ref="A16">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D15=ItemTable[[#This Row],[GradeType]],A15+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D15=ItemTable[[#This Row],[GradeType]],A15+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D15=ItemTable[[#This Row],[GradeType]],A15+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D15=ItemTable[[#This Row],[GradeType]],A15+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D15=ItemTable[[#This Row],[GradeType]],A15+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D15=ItemTable[[#This Row],[GradeType]],A15+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B16" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C16" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>2004</v>
+      </c>
+      <c r="B16">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12004</v>
+      </c>
+      <c r="C16">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22004</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1655,41 +1634,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H16" t="e">
-        <f t="array" aca="1" ref="H16" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J16" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K16" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H16" cm="1">
+        <f t="array" ref="H16">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>7004</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>작은 십자가</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>공격 범위가 2 증가합니다.</v>
       </c>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" t="e">
-        <f t="array" aca="1" ref="A17" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D16=ItemTable[[#This Row],[GradeType]],A16+1,10),
+      <c r="A17" cm="1">
+        <f t="array" ref="A17">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D16=ItemTable[[#This Row],[GradeType]],A16+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D16=ItemTable[[#This Row],[GradeType]],A16+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D16=ItemTable[[#This Row],[GradeType]],A16+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D16=ItemTable[[#This Row],[GradeType]],A16+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D16=ItemTable[[#This Row],[GradeType]],A16+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D16=ItemTable[[#This Row],[GradeType]],A16+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B17" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C17" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>2005</v>
+      </c>
+      <c r="B17">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12005</v>
+      </c>
+      <c r="C17">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22005</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1704,41 +1683,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H17" t="e">
-        <f t="array" aca="1" ref="H17" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J17" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K17" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H17" cm="1">
+        <f t="array" ref="H17">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>7005</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>목없는 갑옷</v>
+      </c>
+      <c r="K17" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>[하트]가 1개 증가합니다.</v>
       </c>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" t="e">
-        <f t="array" aca="1" ref="A18" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D17=ItemTable[[#This Row],[GradeType]],A17+1,10),
+      <c r="A18" cm="1">
+        <f t="array" ref="A18">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D17=ItemTable[[#This Row],[GradeType]],A17+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D17=ItemTable[[#This Row],[GradeType]],A17+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D17=ItemTable[[#This Row],[GradeType]],A17+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D17=ItemTable[[#This Row],[GradeType]],A17+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D17=ItemTable[[#This Row],[GradeType]],A17+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D17=ItemTable[[#This Row],[GradeType]],A17+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B18" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C18" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>2006</v>
+      </c>
+      <c r="B18">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12006</v>
+      </c>
+      <c r="C18">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22006</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1753,41 +1732,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H18" t="e">
-        <f t="array" aca="1" ref="H18" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J18" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K18" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>7006</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>미정2</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>공 던지기 가능 개수가 1개 증가합니다.</v>
       </c>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" t="e">
-        <f t="array" aca="1" ref="A19" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D18=ItemTable[[#This Row],[GradeType]],A18+1,10),
+      <c r="A19" cm="1">
+        <f t="array" ref="A19">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D18=ItemTable[[#This Row],[GradeType]],A18+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D18=ItemTable[[#This Row],[GradeType]],A18+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D18=ItemTable[[#This Row],[GradeType]],A18+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D18=ItemTable[[#This Row],[GradeType]],A18+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D18=ItemTable[[#This Row],[GradeType]],A18+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D18=ItemTable[[#This Row],[GradeType]],A18+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B19" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C19" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>3000</v>
+      </c>
+      <c r="B19">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13000</v>
+      </c>
+      <c r="C19">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23000</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1802,43 +1781,43 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H19" t="e">
-        <f t="array" aca="1" ref="H19" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J19" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K19" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8000</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>Dys : 0N Mk2</v>
+      </c>
+      <c r="K19" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>차징중에 공을 끌어당김</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" t="e">
-        <f t="array" aca="1" ref="A20" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D19=ItemTable[[#This Row],[GradeType]],A19+1,10),
+      <c r="A20" cm="1">
+        <f t="array" ref="A20">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D19=ItemTable[[#This Row],[GradeType]],A19+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D19=ItemTable[[#This Row],[GradeType]],A19+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D19=ItemTable[[#This Row],[GradeType]],A19+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D19=ItemTable[[#This Row],[GradeType]],A19+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D19=ItemTable[[#This Row],[GradeType]],A19+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D19=ItemTable[[#This Row],[GradeType]],A19+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B20" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C20" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>3001</v>
+      </c>
+      <c r="B20">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13001</v>
+      </c>
+      <c r="C20">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23001</v>
       </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1853,41 +1832,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H20" t="e">
-        <f t="array" aca="1" ref="H20" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J20" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K20" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H20" cm="1">
+        <f t="array" ref="H20">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8001</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>무해한 불꽃</v>
+      </c>
+      <c r="K20" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>“실례지만 불타고 계십니다” 현재의 이동속도 비례하여 공격속도 증가</v>
       </c>
       <c r="L20" s="4"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" t="e">
-        <f t="array" aca="1" ref="A21" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D20=ItemTable[[#This Row],[GradeType]],A20+1,10),
+      <c r="A21" cm="1">
+        <f t="array" ref="A21">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D20=ItemTable[[#This Row],[GradeType]],A20+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D20=ItemTable[[#This Row],[GradeType]],A20+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D20=ItemTable[[#This Row],[GradeType]],A20+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D20=ItemTable[[#This Row],[GradeType]],A20+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D20=ItemTable[[#This Row],[GradeType]],A20+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D20=ItemTable[[#This Row],[GradeType]],A20+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B21" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C21" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>3002</v>
+      </c>
+      <c r="B21">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13002</v>
+      </c>
+      <c r="C21">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23002</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1902,41 +1881,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H21" t="e">
-        <f t="array" aca="1" ref="H21" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J21" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K21" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H21" cm="1">
+        <f t="array" ref="H21">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8002</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>롱기누스</v>
+      </c>
+      <c r="K21" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>[배트]로 쳐낸 공이 적을 관통합니다.</v>
       </c>
       <c r="L21" s="4"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" t="e">
-        <f t="array" aca="1" ref="A22" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D21=ItemTable[[#This Row],[GradeType]],A21+1,10),
+      <c r="A22" cm="1">
+        <f t="array" ref="A22">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D21=ItemTable[[#This Row],[GradeType]],A21+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D21=ItemTable[[#This Row],[GradeType]],A21+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D21=ItemTable[[#This Row],[GradeType]],A21+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D21=ItemTable[[#This Row],[GradeType]],A21+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D21=ItemTable[[#This Row],[GradeType]],A21+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D21=ItemTable[[#This Row],[GradeType]],A21+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B22" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C22" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>3003</v>
+      </c>
+      <c r="B22">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13003</v>
+      </c>
+      <c r="C22">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23003</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1951,43 +1930,43 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H22" t="e">
-        <f t="array" aca="1" ref="H22" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J22" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K22" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H22" cm="1">
+        <f t="array" ref="H22">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8003</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>석가면</v>
+      </c>
+      <c r="K22" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>[하트]가 1개 증가합니다. 이동속도, 공격속도가 10% 빨라집니다.</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" t="e">
-        <f t="array" aca="1" ref="A23" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D22=ItemTable[[#This Row],[GradeType]],A22+1,10),
+      <c r="A23" cm="1">
+        <f t="array" ref="A23">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D22=ItemTable[[#This Row],[GradeType]],A22+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D22=ItemTable[[#This Row],[GradeType]],A22+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D22=ItemTable[[#This Row],[GradeType]],A22+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D22=ItemTable[[#This Row],[GradeType]],A22+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D22=ItemTable[[#This Row],[GradeType]],A22+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D22=ItemTable[[#This Row],[GradeType]],A22+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B23" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C23" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>3004</v>
+      </c>
+      <c r="B23">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13004</v>
+      </c>
+      <c r="C23">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23004</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2002,41 +1981,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H23" t="e">
-        <f t="array" aca="1" ref="H23" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J23" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K23" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H23" cm="1">
+        <f t="array" ref="H23">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8004</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>거인의 주먹</v>
+      </c>
+      <c r="K23" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>최대 [하트] 1개 당 5% 만큼 피해량이 증가합니다.</v>
       </c>
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" t="e">
-        <f t="array" aca="1" ref="A24" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D23=ItemTable[[#This Row],[GradeType]],A23+1,10),
+      <c r="A24" cm="1">
+        <f t="array" ref="A24">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D23=ItemTable[[#This Row],[GradeType]],A23+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D23=ItemTable[[#This Row],[GradeType]],A23+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D23=ItemTable[[#This Row],[GradeType]],A23+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D23=ItemTable[[#This Row],[GradeType]],A23+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D23=ItemTable[[#This Row],[GradeType]],A23+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D23=ItemTable[[#This Row],[GradeType]],A23+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B24" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C24" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>3005</v>
+      </c>
+      <c r="B24">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13005</v>
+      </c>
+      <c r="C24">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23005</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2051,43 +2030,43 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H24" t="e">
-        <f t="array" aca="1" ref="H24" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J24" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K24" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H24" cm="1">
+        <f t="array" ref="H24">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8005</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>황금왕의 갑옷</v>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>골드를 20%씩 더 획득합니다.</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" t="e">
-        <f t="array" aca="1" ref="A25" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D24=ItemTable[[#This Row],[GradeType]],A24+1,10),
+      <c r="A25" cm="1">
+        <f t="array" ref="A25">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D24=ItemTable[[#This Row],[GradeType]],A24+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D24=ItemTable[[#This Row],[GradeType]],A24+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D24=ItemTable[[#This Row],[GradeType]],A24+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D24=ItemTable[[#This Row],[GradeType]],A24+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D24=ItemTable[[#This Row],[GradeType]],A24+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D24=ItemTable[[#This Row],[GradeType]],A24+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B25" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C25" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>3006</v>
+      </c>
+      <c r="B25">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13006</v>
+      </c>
+      <c r="C25">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23006</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2102,41 +2081,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H25" t="e">
-        <f t="array" aca="1" ref="H25" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J25" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K25" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H25" cm="1">
+        <f t="array" ref="H25">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8006</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>복사기</v>
+      </c>
+      <c r="K25" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>“공이 복사가 된다고” 공 던지기 개수가 2개 증가합니다.</v>
       </c>
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" t="e">
-        <f t="array" aca="1" ref="A26" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D25=ItemTable[[#This Row],[GradeType]],A25+1,10),
+      <c r="A26" cm="1">
+        <f t="array" ref="A26">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D25=ItemTable[[#This Row],[GradeType]],A25+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D25=ItemTable[[#This Row],[GradeType]],A25+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D25=ItemTable[[#This Row],[GradeType]],A25+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D25=ItemTable[[#This Row],[GradeType]],A25+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D25=ItemTable[[#This Row],[GradeType]],A25+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D25=ItemTable[[#This Row],[GradeType]],A25+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B26" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C26" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>3007</v>
+      </c>
+      <c r="B26">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13007</v>
+      </c>
+      <c r="C26">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23007</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2151,43 +2130,43 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H26" t="e">
-        <f t="array" aca="1" ref="H26" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J26" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K26" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H26" cm="1">
+        <f t="array" ref="H26">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8007</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>어른의 카드</v>
+      </c>
+      <c r="K26" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>소지중인 골드의 1%만큼 데미지 상승</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" t="e">
-        <f t="array" aca="1" ref="A27" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D26=ItemTable[[#This Row],[GradeType]],A26+1,10),
+      <c r="A27" cm="1">
+        <f t="array" ref="A27">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D26=ItemTable[[#This Row],[GradeType]],A26+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D26=ItemTable[[#This Row],[GradeType]],A26+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D26=ItemTable[[#This Row],[GradeType]],A26+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D26=ItemTable[[#This Row],[GradeType]],A26+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D26=ItemTable[[#This Row],[GradeType]],A26+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D26=ItemTable[[#This Row],[GradeType]],A26+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B27" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C27" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>3008</v>
+      </c>
+      <c r="B27">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13008</v>
+      </c>
+      <c r="C27">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23008</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2202,41 +2181,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H27" t="e">
-        <f t="array" aca="1" ref="H27" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J27" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K27" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H27" cm="1">
+        <f t="array" ref="H27">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8008</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>회광반조</v>
+      </c>
+      <c r="K27" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>빈 하트 1개당 피해량 5% 상승</v>
       </c>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" t="e">
-        <f t="array" aca="1" ref="A28" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D27=ItemTable[[#This Row],[GradeType]],A27+1,10),
+      <c r="A28" cm="1">
+        <f t="array" ref="A28">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D27=ItemTable[[#This Row],[GradeType]],A27+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D27=ItemTable[[#This Row],[GradeType]],A27+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D27=ItemTable[[#This Row],[GradeType]],A27+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D27=ItemTable[[#This Row],[GradeType]],A27+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D27=ItemTable[[#This Row],[GradeType]],A27+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D27=ItemTable[[#This Row],[GradeType]],A27+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B28" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C28" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>3009</v>
+      </c>
+      <c r="B28">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13009</v>
+      </c>
+      <c r="C28">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23009</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2251,41 +2230,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H28" t="e">
-        <f t="array" aca="1" ref="H28" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J28" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K28" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H28" cm="1">
+        <f t="array" ref="H28">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8009</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>이카루스의 날개</v>
+      </c>
+      <c r="K28" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>RowCollider을 무시하고 이동함.</v>
       </c>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" t="e">
-        <f t="array" aca="1" ref="A29" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D28=ItemTable[[#This Row],[GradeType]],A28+1,10),
+      <c r="A29" cm="1">
+        <f t="array" ref="A29">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D28=ItemTable[[#This Row],[GradeType]],A28+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D28=ItemTable[[#This Row],[GradeType]],A28+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D28=ItemTable[[#This Row],[GradeType]],A28+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D28=ItemTable[[#This Row],[GradeType]],A28+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D28=ItemTable[[#This Row],[GradeType]],A28+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D28=ItemTable[[#This Row],[GradeType]],A28+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B29" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C29" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>3010</v>
+      </c>
+      <c r="B29">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13010</v>
+      </c>
+      <c r="C29">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23010</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2300,43 +2279,43 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H29" t="e">
-        <f t="array" aca="1" ref="H29" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J29" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K29" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H29" cm="1">
+        <f t="array" ref="H29">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8010</v>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>신성한 수류탄</v>
+      </c>
+      <c r="K29" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>피해량이 20% 증가합니다.</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" t="e">
-        <f t="array" aca="1" ref="A30" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D29=ItemTable[[#This Row],[GradeType]],A29+1,10),
+      <c r="A30" cm="1">
+        <f t="array" ref="A30">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D29=ItemTable[[#This Row],[GradeType]],A29+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D29=ItemTable[[#This Row],[GradeType]],A29+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D29=ItemTable[[#This Row],[GradeType]],A29+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D29=ItemTable[[#This Row],[GradeType]],A29+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D29=ItemTable[[#This Row],[GradeType]],A29+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D29=ItemTable[[#This Row],[GradeType]],A29+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B30" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C30" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>3011</v>
+      </c>
+      <c r="B30">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13011</v>
+      </c>
+      <c r="C30">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23011</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2351,43 +2330,43 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H30" t="e">
-        <f t="array" aca="1" ref="H30" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J30" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K30" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H30" cm="1">
+        <f t="array" ref="H30">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8011</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>슈퍼콜드</v>
+      </c>
+      <c r="K30" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>이동하지 않을 때 시간이 멈춤</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" t="e">
-        <f t="array" aca="1" ref="A31" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D30=ItemTable[[#This Row],[GradeType]],A30+1,10),
+      <c r="A31" cm="1">
+        <f t="array" ref="A31">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D30=ItemTable[[#This Row],[GradeType]],A30+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D30=ItemTable[[#This Row],[GradeType]],A30+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D30=ItemTable[[#This Row],[GradeType]],A30+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D30=ItemTable[[#This Row],[GradeType]],A30+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D30=ItemTable[[#This Row],[GradeType]],A30+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D30=ItemTable[[#This Row],[GradeType]],A30+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B31" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C31" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>3012</v>
+      </c>
+      <c r="B31">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13012</v>
+      </c>
+      <c r="C31">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23012</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2402,41 +2381,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H31" t="e">
-        <f t="array" aca="1" ref="H31" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J31" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K31" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H31" cm="1">
+        <f t="array" ref="H31">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8012</v>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>게이볼그</v>
+      </c>
+      <c r="K31" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>공을 칠 때 자동으로 가장 가까운 적을 향해 날라감</v>
       </c>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" t="e">
-        <f t="array" aca="1" ref="A32" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D31=ItemTable[[#This Row],[GradeType]],A31+1,10),
+      <c r="A32" cm="1">
+        <f t="array" ref="A32">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D31=ItemTable[[#This Row],[GradeType]],A31+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D31=ItemTable[[#This Row],[GradeType]],A31+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D31=ItemTable[[#This Row],[GradeType]],A31+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D31=ItemTable[[#This Row],[GradeType]],A31+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D31=ItemTable[[#This Row],[GradeType]],A31+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D31=ItemTable[[#This Row],[GradeType]],A31+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B32" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C32" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>4000</v>
+      </c>
+      <c r="B32">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14000</v>
+      </c>
+      <c r="C32">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24000</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2451,90 +2430,90 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H32" t="e">
-        <f t="array" aca="1" ref="H32" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J32" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K32" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H32" cm="1">
+        <f t="array" ref="H32">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9000</v>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>불길한 깃발</v>
+      </c>
+      <c r="K32" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" t="e">
-        <f t="array" aca="1" ref="A33" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D32=ItemTable[[#This Row],[GradeType]],A32+1,10),
+      <c r="A33" cm="1">
+        <f t="array" ref="A33">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D32=ItemTable[[#This Row],[GradeType]],A32+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D32=ItemTable[[#This Row],[GradeType]],A32+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D32=ItemTable[[#This Row],[GradeType]],A32+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D32=ItemTable[[#This Row],[GradeType]],A32+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D32=ItemTable[[#This Row],[GradeType]],A32+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D32=ItemTable[[#This Row],[GradeType]],A32+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B33" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C33" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>4001</v>
+      </c>
+      <c r="B33">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14001</v>
+      </c>
+      <c r="C33">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24001</v>
       </c>
       <c r="D33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
-        <v>2</v>
-      </c>
-      <c r="G33">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
-        <v>50</v>
-      </c>
-      <c r="H33" t="e">
-        <f t="array" aca="1" ref="H33" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J33" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K33" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H33" cm="1">
+        <f t="array" ref="H33">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9001</v>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>빗바랜 천가죽</v>
+      </c>
+      <c r="K33" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>이동속도가 20% 감소합니다. 피해량이 20% 감소합니다.</v>
       </c>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" t="e">
-        <f t="array" aca="1" ref="A34" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D33=ItemTable[[#This Row],[GradeType]],A33+1,10),
+      <c r="A34" cm="1">
+        <f t="array" ref="A34">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D33=ItemTable[[#This Row],[GradeType]],A33+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D33=ItemTable[[#This Row],[GradeType]],A33+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D33=ItemTable[[#This Row],[GradeType]],A33+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D33=ItemTable[[#This Row],[GradeType]],A33+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D33=ItemTable[[#This Row],[GradeType]],A33+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D33=ItemTable[[#This Row],[GradeType]],A33+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B34" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C34" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>4002</v>
+      </c>
+      <c r="B34">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14002</v>
+      </c>
+      <c r="C34">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24002</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2549,90 +2528,90 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H34" t="e">
-        <f t="array" aca="1" ref="H34" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J34" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K34" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H34" cm="1">
+        <f t="array" ref="H34">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9002</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>나자렛의 몽키스패너</v>
+      </c>
+      <c r="K34" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
       <c r="L34" s="4"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" t="e">
-        <f t="array" aca="1" ref="A35" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D34=ItemTable[[#This Row],[GradeType]],A34+1,10),
+      <c r="A35" cm="1">
+        <f t="array" ref="A35">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D34=ItemTable[[#This Row],[GradeType]],A34+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D34=ItemTable[[#This Row],[GradeType]],A34+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D34=ItemTable[[#This Row],[GradeType]],A34+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D34=ItemTable[[#This Row],[GradeType]],A34+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D34=ItemTable[[#This Row],[GradeType]],A34+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D34=ItemTable[[#This Row],[GradeType]],A34+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B35" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C35" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>4003</v>
+      </c>
+      <c r="B35">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14003</v>
+      </c>
+      <c r="C35">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24003</v>
       </c>
       <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
-        <v>50</v>
-      </c>
-      <c r="H35" t="e">
-        <f t="array" aca="1" ref="H35" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J35" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K35" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H35" cm="1">
+        <f t="array" ref="H35">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9003</v>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>저주받은 갑옷</v>
+      </c>
+      <c r="K35" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>[하트]가 3개 증가, 이동속도가 40% 느려집니다.</v>
       </c>
       <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" t="e">
-        <f t="array" aca="1" ref="A36" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D35=ItemTable[[#This Row],[GradeType]],A35+1,10),
+      <c r="A36" cm="1">
+        <f t="array" ref="A36">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D35=ItemTable[[#This Row],[GradeType]],A35+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D35=ItemTable[[#This Row],[GradeType]],A35+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D35=ItemTable[[#This Row],[GradeType]],A35+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D35=ItemTable[[#This Row],[GradeType]],A35+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D35=ItemTable[[#This Row],[GradeType]],A35+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D35=ItemTable[[#This Row],[GradeType]],A35+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B36" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C36" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>4004</v>
+      </c>
+      <c r="B36">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14004</v>
+      </c>
+      <c r="C36">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24004</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2647,41 +2626,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H36" t="e">
-        <f t="array" aca="1" ref="H36" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J36" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K36" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H36" cm="1">
+        <f t="array" ref="H36">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9004</v>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>유리 대포</v>
+      </c>
+      <c r="K36" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>[하트]가 3개 감소, 피해량이 35% 증가합니다.</v>
       </c>
       <c r="L36" s="4"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" t="e">
-        <f t="array" aca="1" ref="A37" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D36=ItemTable[[#This Row],[GradeType]],A36+1,10),
+      <c r="A37" cm="1">
+        <f t="array" ref="A37">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D36=ItemTable[[#This Row],[GradeType]],A36+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D36=ItemTable[[#This Row],[GradeType]],A36+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D36=ItemTable[[#This Row],[GradeType]],A36+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D36=ItemTable[[#This Row],[GradeType]],A36+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D36=ItemTable[[#This Row],[GradeType]],A36+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D36=ItemTable[[#This Row],[GradeType]],A36+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B37" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C37" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>4005</v>
+      </c>
+      <c r="B37">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14005</v>
+      </c>
+      <c r="C37">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24005</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2696,41 +2675,41 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H37" t="e">
-        <f t="array" aca="1" ref="H37" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J37" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K37" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H37" cm="1">
+        <f t="array" ref="H37">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9005</v>
+      </c>
+      <c r="J37" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>청개구리 총</v>
+      </c>
+      <c r="K37" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>공격을 반대로 합니다. 대신 피해량이 25% 증가합니다.</v>
       </c>
       <c r="L37" s="4"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" t="e">
-        <f t="array" aca="1" ref="A38" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D37=ItemTable[[#This Row],[GradeType]],A37+1,10),
+      <c r="A38" cm="1">
+        <f t="array" ref="A38">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D37=ItemTable[[#This Row],[GradeType]],A37+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D37=ItemTable[[#This Row],[GradeType]],A37+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D37=ItemTable[[#This Row],[GradeType]],A37+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D37=ItemTable[[#This Row],[GradeType]],A37+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D37=ItemTable[[#This Row],[GradeType]],A37+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D37=ItemTable[[#This Row],[GradeType]],A37+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B38" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C38" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>4006</v>
+      </c>
+      <c r="B38">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14006</v>
+      </c>
+      <c r="C38">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24006</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2745,69 +2724,69 @@
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H38" t="e">
-        <f t="array" aca="1" ref="H38" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J38" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K38" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H38" cm="1">
+        <f t="array" ref="H38">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9006</v>
+      </c>
+      <c r="J38" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>불운의 황금상</v>
+      </c>
+      <c r="K38" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>더 이상 골드를 획득할 수 없습니다. 데미지가 30% 상승합니다.</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" t="e">
-        <f t="array" aca="1" ref="A39" ca="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D38=ItemTable[[#This Row],[GradeType]],A38+1,10),
+      <c r="A39" cm="1">
+        <f t="array" ref="A39">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D38=ItemTable[[#This Row],[GradeType]],A38+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D38=ItemTable[[#This Row],[GradeType]],A38+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D38=ItemTable[[#This Row],[GradeType]],A38+1,1000),
 ItemTable[[#This Row],[GradeType]]="Normal",IF(D38=ItemTable[[#This Row],[GradeType]],A38+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D38=ItemTable[[#This Row],[GradeType]],A38+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D38=ItemTable[[#This Row],[GradeType]],A38+1,4000))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B39" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+10000</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C39" t="e">
-        <f ca="1">ItemTable[[#This Row],[Index]]+20000</f>
-        <v>#NAME?</v>
+        <v>4007</v>
+      </c>
+      <c r="B39">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14007</v>
+      </c>
+      <c r="C39">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24007</v>
       </c>
       <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
-        <v>2</v>
-      </c>
-      <c r="G39">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
-        <v>50</v>
-      </c>
-      <c r="H39" t="e">
-        <f t="array" aca="1" ref="H39" ca="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
-TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J39" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K39" s="3" t="e">
-        <f ca="1">INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
-        <v>#NAME?</v>
+      <c r="H39" cm="1">
+        <f t="array" ref="H39">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9007</v>
+      </c>
+      <c r="J39" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>저주받은 테니스채</v>
+      </c>
+      <c r="K39" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
       <c r="L39" s="4"/>
     </row>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{121FDCAD-081A-4AD8-B30A-60210F805515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{475AB9AA-A2E6-460B-A250-6FD02401C625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84787F69-A9F7-472E-AC27-FF1F3EFAD478}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC206DD8-0EC0-48D5-92BA-5FD6C9F35008}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A2A13769-D8D3-4D4B-945F-15731E55F1C6}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{221171A4-6513-4A1D-989C-1D03523E6C7F}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA24BDB5-DDF7-40FB-BCDE-515F0D88994D}" name="ItemTable" displayName="ItemTable" ref="A2:L39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54014D44-EE86-4CCF-9CFD-D78E2DDC566F}" name="ItemTable" displayName="ItemTable" ref="A2:L39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A2:L39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{CF78D765-8251-42D4-BA28-A6466E01778B}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{CE97EB22-2830-43D3-B155-C3E8528008A9}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D5AD95FC-D1CE-48A5-AA93-01BF766AF438}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{6401C5D5-9AEA-43CC-81AA-B6367CEFCA31}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{01B6A684-A706-4E39-9623-046AF7D3C3C4}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{4216491E-35B7-4826-9132-B2C45C19FB29}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0AD7F41E-77CC-4B54-9DCB-EC4CB9E40F35}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{FBDFBD56-5560-4DA3-ABA8-344172A6B88A}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{E96B9D2A-AC6E-4F78-BA2B-7F729DD0632C}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{E343B73C-4DF5-4B3E-B7F7-D51CD5B005D2}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{57AC6F11-72C6-4668-A293-8309C22B4036}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{5474ED73-FA9A-4080-9290-F1662D12D79C}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{8ACF0AAC-5055-4FA1-8404-27EBA0D1CE82}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{8C5EEC43-48AC-4B8E-8411-5B19805CA902}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DB22CDA0-B0EF-444F-8303-9A2BC2FF560C}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{A753A207-C5E6-4766-AFE0-9DE50200CC02}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{D56F65A9-D2E9-4AAC-805A-9E1AC53B87EF}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{4E23BD48-A821-44C2-AF80-A7C3E8FDF694}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{4120E40A-E0DB-4068-B413-159ED2A68FF6}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{E607FDF5-31E8-468C-84B5-F98B3A62A96E}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F6FA45D5-5141-4BEA-A15D-A60695B2B5A6}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{C6CF5D42-3E1B-4618-9C58-1697487101DE}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C9655F3F-769B-45E7-A956-E07E791ABCB5}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{19286633-52C9-4C75-8280-8EFA9AC534CD}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,14 +862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB1945B-ED03-4AC5-BCD1-6038AEE5FAE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FA0D8E-67EE-42DE-A325-836A6CE69C4E}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{475AB9AA-A2E6-460B-A250-6FD02401C625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5673A869-9B45-4719-9164-B902AB01DB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC206DD8-0EC0-48D5-92BA-5FD6C9F35008}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8854AF1D-D85D-4DE4-A78E-C85971337BCC}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{221171A4-6513-4A1D-989C-1D03523E6C7F}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{EE27FCB5-4EBA-44A8-B5C0-5A927AAB7BDE}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -483,8 +483,8 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="시트별저장버튼"/>
-      <sheetName val="아이템 가격 밸런싱"/>
-      <sheetName val="밸런스 시트"/>
+      <sheetName val="아이템 밸런스 시트"/>
+      <sheetName val="전투 밸런스 시트"/>
       <sheetName val="공용데이터(참고용)"/>
       <sheetName val="CharacterGameData"/>
       <sheetName val="CharacterAtkGameData"/>
@@ -522,45 +522,45 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54014D44-EE86-4CCF-9CFD-D78E2DDC566F}" name="ItemTable" displayName="ItemTable" ref="A2:L39" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A2:L39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAF39338-294E-46FD-927C-75DA730EC156}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{CE97EB22-2830-43D3-B155-C3E8528008A9}" name="Index" dataDxfId="11">
-      <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,4000))</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{FC5A7236-4C69-4783-B0C8-35487EA1FB40}" name="Index" dataDxfId="11">
+      <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6401C5D5-9AEA-43CC-81AA-B6367CEFCA31}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{EB2159B4-38BB-4BB6-BD33-8B33B623DCFA}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4216491E-35B7-4826-9132-B2C45C19FB29}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{FF2A4CCC-7EB8-4055-9E0B-B3A89821DDFD}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E343B73C-4DF5-4B3E-B7F7-D51CD5B005D2}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{57AC6F11-72C6-4668-A293-8309C22B4036}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{5474ED73-FA9A-4080-9290-F1662D12D79C}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{82467BAD-790D-49E7-B958-DDDA097DF4A6}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{4610C90B-9463-4538-BE14-7196FB090E95}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{947FB289-79D1-4EFE-B409-96C226973031}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{8C5EEC43-48AC-4B8E-8411-5B19805CA902}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{1B0378F7-995D-45F8-A0AF-AD496984D28E}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{A753A207-C5E6-4766-AFE0-9DE50200CC02}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{415B94A2-12CB-4E53-8EBB-7D8F34708798}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{4120E40A-E0DB-4068-B413-159ED2A68FF6}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{E607FDF5-31E8-468C-84B5-F98B3A62A96E}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{5A6B7F8D-2BD2-4747-B094-011B0DB7AB7B}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{776DC79A-8D64-4492-82AC-471B8A7F6B7C}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C6CF5D42-3E1B-4618-9C58-1697487101DE}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{F9D654D7-C9D5-4707-88F4-67C8D2A23FEC}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{19286633-52C9-4C75-8280-8EFA9AC534CD}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{B1EF3CE2-B2CD-490F-9707-FB1F265220C7}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,44 +862,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81FA0D8E-67EE-42DE-A325-836A6CE69C4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B85A20-D44D-4E8B-A9AF-2DB0A26978EF}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="B1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="69.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -911,10 +908,10 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
-      </c>
-      <c r="J1" t="s">
-        <v>5</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -922,1873 +919,1876 @@
       <c r="L1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" cm="1">
-        <f t="array" ref="A3">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D2=ItemTable[[#This Row],[GradeType]],A2+1,4000))</f>
+    <row r="3" spans="2:13">
+      <c r="B3" cm="1">
+        <f t="array" ref="B3">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</f>
         <v>10</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>10010</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>20010</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>10</v>
       </c>
-      <c r="H3" cm="1">
-        <f t="array" ref="H3">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I3" cm="1">
+        <f t="array" ref="I3">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="K3" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>하트 1개</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>0</v>
       </c>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" cm="1">
-        <f t="array" ref="A4">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D3=ItemTable[[#This Row],[GradeType]],A3+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D3=ItemTable[[#This Row],[GradeType]],A3+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D3=ItemTable[[#This Row],[GradeType]],A3+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D3=ItemTable[[#This Row],[GradeType]],A3+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D3=ItemTable[[#This Row],[GradeType]],A3+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D3=ItemTable[[#This Row],[GradeType]],A3+1,4000))</f>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" cm="1">
+        <f t="array" ref="B4">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E3=ItemTable[[#This Row],[GradeType]],B3+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E3=ItemTable[[#This Row],[GradeType]],B3+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E3=ItemTable[[#This Row],[GradeType]],B3+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E3=ItemTable[[#This Row],[GradeType]],B3+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E3=ItemTable[[#This Row],[GradeType]],B3+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E3=ItemTable[[#This Row],[GradeType]],B3+1,4000))</f>
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>10011</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>20011</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>20</v>
       </c>
-      <c r="H4" cm="1">
-        <f t="array" ref="H4">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I4" cm="1">
+        <f t="array" ref="I4">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="str">
+      <c r="K4" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>하트 2개</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>0</v>
       </c>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" cm="1">
-        <f t="array" ref="A5">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D4=ItemTable[[#This Row],[GradeType]],A4+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D4=ItemTable[[#This Row],[GradeType]],A4+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D4=ItemTable[[#This Row],[GradeType]],A4+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D4=ItemTable[[#This Row],[GradeType]],A4+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D4=ItemTable[[#This Row],[GradeType]],A4+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D4=ItemTable[[#This Row],[GradeType]],A4+1,4000))</f>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" cm="1">
+        <f t="array" ref="B5">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E4=ItemTable[[#This Row],[GradeType]],B4+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E4=ItemTable[[#This Row],[GradeType]],B4+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E4=ItemTable[[#This Row],[GradeType]],B4+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E4=ItemTable[[#This Row],[GradeType]],B4+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E4=ItemTable[[#This Row],[GradeType]],B4+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E4=ItemTable[[#This Row],[GradeType]],B4+1,4000))</f>
         <v>20</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>10020</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>20020</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>15</v>
       </c>
-      <c r="F5">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
-        <v>1</v>
-      </c>
       <c r="G5">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="H5" cm="1">
-        <f t="array" ref="H5">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="str">
+      <c r="K5" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>15 골드</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>0</v>
       </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" cm="1">
-        <f t="array" ref="A6">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D5=ItemTable[[#This Row],[GradeType]],A5+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D5=ItemTable[[#This Row],[GradeType]],A5+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D5=ItemTable[[#This Row],[GradeType]],A5+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D5=ItemTable[[#This Row],[GradeType]],A5+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D5=ItemTable[[#This Row],[GradeType]],A5+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D5=ItemTable[[#This Row],[GradeType]],A5+1,4000))</f>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" cm="1">
+        <f t="array" ref="B6">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E5=ItemTable[[#This Row],[GradeType]],B5+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E5=ItemTable[[#This Row],[GradeType]],B5+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E5=ItemTable[[#This Row],[GradeType]],B5+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E5=ItemTable[[#This Row],[GradeType]],B5+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E5=ItemTable[[#This Row],[GradeType]],B5+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E5=ItemTable[[#This Row],[GradeType]],B5+1,4000))</f>
         <v>21</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>10021</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>20021</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>30</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="H6" cm="1">
-        <f t="array" ref="H6">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="K6" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>30 골드</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>0</v>
       </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" cm="1">
-        <f t="array" ref="A7">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D6=ItemTable[[#This Row],[GradeType]],A6+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D6=ItemTable[[#This Row],[GradeType]],A6+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D6=ItemTable[[#This Row],[GradeType]],A6+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D6=ItemTable[[#This Row],[GradeType]],A6+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D6=ItemTable[[#This Row],[GradeType]],A6+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D6=ItemTable[[#This Row],[GradeType]],A6+1,4000))</f>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" cm="1">
+        <f t="array" ref="B7">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E6=ItemTable[[#This Row],[GradeType]],B6+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E6=ItemTable[[#This Row],[GradeType]],B6+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E6=ItemTable[[#This Row],[GradeType]],B6+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E6=ItemTable[[#This Row],[GradeType]],B6+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E6=ItemTable[[#This Row],[GradeType]],B6+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E6=ItemTable[[#This Row],[GradeType]],B6+1,4000))</f>
         <v>22</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>10022</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>20022</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>45</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="H7" cm="1">
-        <f t="array" ref="H7">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I7" cm="1">
+        <f t="array" ref="I7">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>0</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="K7" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>45 골드</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>0</v>
       </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" cm="1">
-        <f t="array" ref="A8">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D7=ItemTable[[#This Row],[GradeType]],A7+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D7=ItemTable[[#This Row],[GradeType]],A7+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D7=ItemTable[[#This Row],[GradeType]],A7+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D7=ItemTable[[#This Row],[GradeType]],A7+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D7=ItemTable[[#This Row],[GradeType]],A7+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D7=ItemTable[[#This Row],[GradeType]],A7+1,4000))</f>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" cm="1">
+        <f t="array" ref="B8">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E7=ItemTable[[#This Row],[GradeType]],B7+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E7=ItemTable[[#This Row],[GradeType]],B7+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E7=ItemTable[[#This Row],[GradeType]],B7+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E7=ItemTable[[#This Row],[GradeType]],B7+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E7=ItemTable[[#This Row],[GradeType]],B7+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E7=ItemTable[[#This Row],[GradeType]],B7+1,4000))</f>
         <v>23</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>10023</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>20023</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>60</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>0</v>
       </c>
-      <c r="H8" cm="1">
-        <f t="array" ref="H8">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="str">
+      <c r="K8" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>60 골드</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>0</v>
       </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" cm="1">
-        <f t="array" ref="A9">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D8=ItemTable[[#This Row],[GradeType]],A8+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D8=ItemTable[[#This Row],[GradeType]],A8+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D8=ItemTable[[#This Row],[GradeType]],A8+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D8=ItemTable[[#This Row],[GradeType]],A8+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D8=ItemTable[[#This Row],[GradeType]],A8+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D8=ItemTable[[#This Row],[GradeType]],A8+1,4000))</f>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" cm="1">
+        <f t="array" ref="B9">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E8=ItemTable[[#This Row],[GradeType]],B8+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E8=ItemTable[[#This Row],[GradeType]],B8+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E8=ItemTable[[#This Row],[GradeType]],B8+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E8=ItemTable[[#This Row],[GradeType]],B8+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E8=ItemTable[[#This Row],[GradeType]],B8+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E8=ItemTable[[#This Row],[GradeType]],B8+1,4000))</f>
         <v>1000</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>11000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>21000</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H9" cm="1">
-        <f t="array" ref="H9">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I9" cm="1">
+        <f t="array" ref="I9">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>6000</v>
       </c>
-      <c r="J9" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
-        <v>뾱뾱 슬리퍼</v>
-      </c>
       <c r="K9" s="3" t="str">
+        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <v>장난감 배트</v>
+      </c>
+      <c r="L9" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>아무 능력이 없지만 이동할 때 뾱뾱 소리가 납니다.</v>
       </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" cm="1">
-        <f t="array" ref="A10">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D9=ItemTable[[#This Row],[GradeType]],A9+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D9=ItemTable[[#This Row],[GradeType]],A9+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D9=ItemTable[[#This Row],[GradeType]],A9+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D9=ItemTable[[#This Row],[GradeType]],A9+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D9=ItemTable[[#This Row],[GradeType]],A9+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D9=ItemTable[[#This Row],[GradeType]],A9+1,4000))</f>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" cm="1">
+        <f t="array" ref="B10">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E9=ItemTable[[#This Row],[GradeType]],B9+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E9=ItemTable[[#This Row],[GradeType]],B9+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E9=ItemTable[[#This Row],[GradeType]],B9+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E9=ItemTable[[#This Row],[GradeType]],B9+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E9=ItemTable[[#This Row],[GradeType]],B9+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E9=ItemTable[[#This Row],[GradeType]],B9+1,4000))</f>
         <v>1001</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>11001</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>21001</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H10" cm="1">
-        <f t="array" ref="H10">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I10" cm="1">
+        <f t="array" ref="I10">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>6001</v>
       </c>
-      <c r="J10" s="3" t="str">
+      <c r="K10" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>무지개빛 총공격</v>
       </c>
-      <c r="K10" s="3" t="str">
+      <c r="L10" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>냥냥냥. 모든 탄환이 적을 관통합니다.</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" cm="1">
-        <f t="array" ref="A11">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D10=ItemTable[[#This Row],[GradeType]],A10+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D10=ItemTable[[#This Row],[GradeType]],A10+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D10=ItemTable[[#This Row],[GradeType]],A10+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D10=ItemTable[[#This Row],[GradeType]],A10+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D10=ItemTable[[#This Row],[GradeType]],A10+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D10=ItemTable[[#This Row],[GradeType]],A10+1,4000))</f>
+    <row r="11" spans="2:13">
+      <c r="B11" cm="1">
+        <f t="array" ref="B11">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E10=ItemTable[[#This Row],[GradeType]],B10+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E10=ItemTable[[#This Row],[GradeType]],B10+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E10=ItemTable[[#This Row],[GradeType]],B10+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E10=ItemTable[[#This Row],[GradeType]],B10+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E10=ItemTable[[#This Row],[GradeType]],B10+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E10=ItemTable[[#This Row],[GradeType]],B10+1,4000))</f>
         <v>1002</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>11002</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>21002</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H11" cm="1">
-        <f t="array" ref="H11">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I11" cm="1">
+        <f t="array" ref="I11">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>6002</v>
       </c>
-      <c r="J11" s="3" t="str">
+      <c r="K11" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>트럼펫</v>
       </c>
-      <c r="K11" s="3" t="str">
+      <c r="L11" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>트럼펫 소리가 납니다. 공격력이 20%증가합니다.</v>
       </c>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" cm="1">
-        <f t="array" ref="A12">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D11=ItemTable[[#This Row],[GradeType]],A11+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D11=ItemTable[[#This Row],[GradeType]],A11+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D11=ItemTable[[#This Row],[GradeType]],A11+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D11=ItemTable[[#This Row],[GradeType]],A11+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D11=ItemTable[[#This Row],[GradeType]],A11+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D11=ItemTable[[#This Row],[GradeType]],A11+1,4000))</f>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" cm="1">
+        <f t="array" ref="B12">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E11=ItemTable[[#This Row],[GradeType]],B11+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E11=ItemTable[[#This Row],[GradeType]],B11+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E11=ItemTable[[#This Row],[GradeType]],B11+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E11=ItemTable[[#This Row],[GradeType]],B11+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E11=ItemTable[[#This Row],[GradeType]],B11+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E11=ItemTable[[#This Row],[GradeType]],B11+1,4000))</f>
         <v>2000</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>12000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>22000</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
       <c r="F12">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
         <v>1</v>
       </c>
       <c r="G12">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H12" cm="1">
-        <f t="array" ref="H12">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I12" cm="1">
+        <f t="array" ref="I12">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>7000</v>
       </c>
-      <c r="J12" s="3" t="str">
+      <c r="K12" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>신성한 종</v>
       </c>
-      <c r="K12" s="3" t="str">
+      <c r="L12" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>이동속도가 조금 빨라집니다.</v>
       </c>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" cm="1">
-        <f t="array" ref="A13">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D12=ItemTable[[#This Row],[GradeType]],A12+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D12=ItemTable[[#This Row],[GradeType]],A12+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D12=ItemTable[[#This Row],[GradeType]],A12+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D12=ItemTable[[#This Row],[GradeType]],A12+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D12=ItemTable[[#This Row],[GradeType]],A12+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D12=ItemTable[[#This Row],[GradeType]],A12+1,4000))</f>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" cm="1">
+        <f t="array" ref="B13">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E12=ItemTable[[#This Row],[GradeType]],B12+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E12=ItemTable[[#This Row],[GradeType]],B12+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E12=ItemTable[[#This Row],[GradeType]],B12+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E12=ItemTable[[#This Row],[GradeType]],B12+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E12=ItemTable[[#This Row],[GradeType]],B12+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E12=ItemTable[[#This Row],[GradeType]],B12+1,4000))</f>
         <v>2001</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>12001</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>22001</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
       <c r="F13">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
         <v>1</v>
       </c>
       <c r="G13">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H13" cm="1">
-        <f t="array" ref="H13">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I13" cm="1">
+        <f t="array" ref="I13">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>7001</v>
       </c>
-      <c r="J13" s="3" t="str">
+      <c r="K13" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>미정1</v>
       </c>
-      <c r="K13" s="3" t="str">
+      <c r="L13" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>공격 속도 15% 상승</v>
       </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" cm="1">
-        <f t="array" ref="A14">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D13=ItemTable[[#This Row],[GradeType]],A13+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D13=ItemTable[[#This Row],[GradeType]],A13+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D13=ItemTable[[#This Row],[GradeType]],A13+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D13=ItemTable[[#This Row],[GradeType]],A13+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D13=ItemTable[[#This Row],[GradeType]],A13+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D13=ItemTable[[#This Row],[GradeType]],A13+1,4000))</f>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" cm="1">
+        <f t="array" ref="B14">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E13=ItemTable[[#This Row],[GradeType]],B13+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E13=ItemTable[[#This Row],[GradeType]],B13+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E13=ItemTable[[#This Row],[GradeType]],B13+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E13=ItemTable[[#This Row],[GradeType]],B13+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E13=ItemTable[[#This Row],[GradeType]],B13+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E13=ItemTable[[#This Row],[GradeType]],B13+1,4000))</f>
         <v>2002</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>12002</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>22002</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
       <c r="F14">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
         <v>1</v>
       </c>
       <c r="G14">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H14" cm="1">
-        <f t="array" ref="H14">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I14" cm="1">
+        <f t="array" ref="I14">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>7002</v>
       </c>
-      <c r="J14" s="3" t="str">
+      <c r="K14" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>무언가 담긴병</v>
       </c>
-      <c r="K14" s="3" t="str">
+      <c r="L14" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>차징 속도 20% 상승</v>
       </c>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" cm="1">
-        <f t="array" ref="A15">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D14=ItemTable[[#This Row],[GradeType]],A14+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D14=ItemTable[[#This Row],[GradeType]],A14+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D14=ItemTable[[#This Row],[GradeType]],A14+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D14=ItemTable[[#This Row],[GradeType]],A14+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D14=ItemTable[[#This Row],[GradeType]],A14+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D14=ItemTable[[#This Row],[GradeType]],A14+1,4000))</f>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" cm="1">
+        <f t="array" ref="B15">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E14=ItemTable[[#This Row],[GradeType]],B14+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E14=ItemTable[[#This Row],[GradeType]],B14+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E14=ItemTable[[#This Row],[GradeType]],B14+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E14=ItemTable[[#This Row],[GradeType]],B14+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E14=ItemTable[[#This Row],[GradeType]],B14+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E14=ItemTable[[#This Row],[GradeType]],B14+1,4000))</f>
         <v>2003</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>12003</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>22003</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
       <c r="F15">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
         <v>1</v>
       </c>
       <c r="G15">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H15">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H15" cm="1">
-        <f t="array" ref="H15">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I15" cm="1">
+        <f t="array" ref="I15">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>7003</v>
       </c>
-      <c r="J15" s="3" t="str">
+      <c r="K15" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>아저씨의 금구슬</v>
       </c>
-      <c r="K15" s="3" t="str">
+      <c r="L15" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>공 크기가 3 커집니다.</v>
       </c>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" cm="1">
-        <f t="array" ref="A16">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D15=ItemTable[[#This Row],[GradeType]],A15+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D15=ItemTable[[#This Row],[GradeType]],A15+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D15=ItemTable[[#This Row],[GradeType]],A15+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D15=ItemTable[[#This Row],[GradeType]],A15+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D15=ItemTable[[#This Row],[GradeType]],A15+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D15=ItemTable[[#This Row],[GradeType]],A15+1,4000))</f>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" cm="1">
+        <f t="array" ref="B16">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E15=ItemTable[[#This Row],[GradeType]],B15+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E15=ItemTable[[#This Row],[GradeType]],B15+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E15=ItemTable[[#This Row],[GradeType]],B15+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E15=ItemTable[[#This Row],[GradeType]],B15+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E15=ItemTable[[#This Row],[GradeType]],B15+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E15=ItemTable[[#This Row],[GradeType]],B15+1,4000))</f>
         <v>2004</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>12004</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>22004</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
       <c r="F16">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
         <v>1</v>
       </c>
       <c r="G16">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H16" cm="1">
-        <f t="array" ref="H16">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I16" cm="1">
+        <f t="array" ref="I16">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>7004</v>
       </c>
-      <c r="J16" s="3" t="str">
+      <c r="K16" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>작은 십자가</v>
       </c>
-      <c r="K16" s="3" t="str">
+      <c r="L16" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>공격 범위가 2 증가합니다.</v>
       </c>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" cm="1">
-        <f t="array" ref="A17">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D16=ItemTable[[#This Row],[GradeType]],A16+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D16=ItemTable[[#This Row],[GradeType]],A16+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D16=ItemTable[[#This Row],[GradeType]],A16+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D16=ItemTable[[#This Row],[GradeType]],A16+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D16=ItemTable[[#This Row],[GradeType]],A16+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D16=ItemTable[[#This Row],[GradeType]],A16+1,4000))</f>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" cm="1">
+        <f t="array" ref="B17">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E16=ItemTable[[#This Row],[GradeType]],B16+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E16=ItemTable[[#This Row],[GradeType]],B16+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E16=ItemTable[[#This Row],[GradeType]],B16+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E16=ItemTable[[#This Row],[GradeType]],B16+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E16=ItemTable[[#This Row],[GradeType]],B16+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E16=ItemTable[[#This Row],[GradeType]],B16+1,4000))</f>
         <v>2005</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>12005</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>22005</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
       <c r="F17">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
         <v>1</v>
       </c>
       <c r="G17">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H17">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H17" cm="1">
-        <f t="array" ref="H17">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I17" cm="1">
+        <f t="array" ref="I17">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>7005</v>
       </c>
-      <c r="J17" s="3" t="str">
+      <c r="K17" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>목없는 갑옷</v>
       </c>
-      <c r="K17" s="3" t="str">
+      <c r="L17" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>[하트]가 1개 증가합니다.</v>
       </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" cm="1">
-        <f t="array" ref="A18">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D17=ItemTable[[#This Row],[GradeType]],A17+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D17=ItemTable[[#This Row],[GradeType]],A17+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D17=ItemTable[[#This Row],[GradeType]],A17+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D17=ItemTable[[#This Row],[GradeType]],A17+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D17=ItemTable[[#This Row],[GradeType]],A17+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D17=ItemTable[[#This Row],[GradeType]],A17+1,4000))</f>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" cm="1">
+        <f t="array" ref="B18">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E17=ItemTable[[#This Row],[GradeType]],B17+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E17=ItemTable[[#This Row],[GradeType]],B17+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E17=ItemTable[[#This Row],[GradeType]],B17+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E17=ItemTable[[#This Row],[GradeType]],B17+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E17=ItemTable[[#This Row],[GradeType]],B17+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E17=ItemTable[[#This Row],[GradeType]],B17+1,4000))</f>
         <v>2006</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>12006</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>22006</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>22</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
       <c r="F18">
-        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
-*ItemTable[[#This Row],[Value]]</f>
         <v>1</v>
       </c>
       <c r="G18">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H18">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>30</v>
       </c>
-      <c r="H18" cm="1">
-        <f t="array" ref="H18">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I18" cm="1">
+        <f t="array" ref="I18">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>7006</v>
       </c>
-      <c r="J18" s="3" t="str">
+      <c r="K18" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>미정2</v>
       </c>
-      <c r="K18" s="3" t="str">
+      <c r="L18" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>공 던지기 가능 개수가 1개 증가합니다.</v>
       </c>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" cm="1">
-        <f t="array" ref="A19">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D18=ItemTable[[#This Row],[GradeType]],A18+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D18=ItemTable[[#This Row],[GradeType]],A18+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D18=ItemTable[[#This Row],[GradeType]],A18+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D18=ItemTable[[#This Row],[GradeType]],A18+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D18=ItemTable[[#This Row],[GradeType]],A18+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D18=ItemTable[[#This Row],[GradeType]],A18+1,4000))</f>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" cm="1">
+        <f t="array" ref="B19">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E18=ItemTable[[#This Row],[GradeType]],B18+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E18=ItemTable[[#This Row],[GradeType]],B18+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E18=ItemTable[[#This Row],[GradeType]],B18+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E18=ItemTable[[#This Row],[GradeType]],B18+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E18=ItemTable[[#This Row],[GradeType]],B18+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E18=ItemTable[[#This Row],[GradeType]],B18+1,4000))</f>
         <v>3000</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>13000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>23000</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H19" cm="1">
-        <f t="array" ref="H19">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I19" cm="1">
+        <f t="array" ref="I19">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>8000</v>
       </c>
-      <c r="J19" s="3" t="str">
+      <c r="K19" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>Dys : 0N Mk2</v>
       </c>
-      <c r="K19" s="3" t="str">
+      <c r="L19" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>차징중에 공을 끌어당김</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" cm="1">
-        <f t="array" ref="A20">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D19=ItemTable[[#This Row],[GradeType]],A19+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D19=ItemTable[[#This Row],[GradeType]],A19+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D19=ItemTable[[#This Row],[GradeType]],A19+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D19=ItemTable[[#This Row],[GradeType]],A19+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D19=ItemTable[[#This Row],[GradeType]],A19+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D19=ItemTable[[#This Row],[GradeType]],A19+1,4000))</f>
+    <row r="20" spans="2:13">
+      <c r="B20" cm="1">
+        <f t="array" ref="B20">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E19=ItemTable[[#This Row],[GradeType]],B19+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E19=ItemTable[[#This Row],[GradeType]],B19+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E19=ItemTable[[#This Row],[GradeType]],B19+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E19=ItemTable[[#This Row],[GradeType]],B19+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E19=ItemTable[[#This Row],[GradeType]],B19+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E19=ItemTable[[#This Row],[GradeType]],B19+1,4000))</f>
         <v>3001</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>13001</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>23001</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H20" cm="1">
-        <f t="array" ref="H20">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I20" cm="1">
+        <f t="array" ref="I20">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>8001</v>
       </c>
-      <c r="J20" s="3" t="str">
+      <c r="K20" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>무해한 불꽃</v>
       </c>
-      <c r="K20" s="3" t="str">
+      <c r="L20" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>“실례지만 불타고 계십니다” 현재의 이동속도 비례하여 공격속도 증가</v>
       </c>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" cm="1">
-        <f t="array" ref="A21">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D20=ItemTable[[#This Row],[GradeType]],A20+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D20=ItemTable[[#This Row],[GradeType]],A20+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D20=ItemTable[[#This Row],[GradeType]],A20+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D20=ItemTable[[#This Row],[GradeType]],A20+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D20=ItemTable[[#This Row],[GradeType]],A20+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D20=ItemTable[[#This Row],[GradeType]],A20+1,4000))</f>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" cm="1">
+        <f t="array" ref="B21">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E20=ItemTable[[#This Row],[GradeType]],B20+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E20=ItemTable[[#This Row],[GradeType]],B20+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E20=ItemTable[[#This Row],[GradeType]],B20+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E20=ItemTable[[#This Row],[GradeType]],B20+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E20=ItemTable[[#This Row],[GradeType]],B20+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E20=ItemTable[[#This Row],[GradeType]],B20+1,4000))</f>
         <v>3002</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>13002</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>23002</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H21" cm="1">
-        <f t="array" ref="H21">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I21" cm="1">
+        <f t="array" ref="I21">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>8002</v>
       </c>
-      <c r="J21" s="3" t="str">
+      <c r="K21" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>롱기누스</v>
       </c>
-      <c r="K21" s="3" t="str">
+      <c r="L21" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>[배트]로 쳐낸 공이 적을 관통합니다.</v>
       </c>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" cm="1">
-        <f t="array" ref="A22">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D21=ItemTable[[#This Row],[GradeType]],A21+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D21=ItemTable[[#This Row],[GradeType]],A21+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D21=ItemTable[[#This Row],[GradeType]],A21+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D21=ItemTable[[#This Row],[GradeType]],A21+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D21=ItemTable[[#This Row],[GradeType]],A21+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D21=ItemTable[[#This Row],[GradeType]],A21+1,4000))</f>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" cm="1">
+        <f t="array" ref="B22">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E21=ItemTable[[#This Row],[GradeType]],B21+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E21=ItemTable[[#This Row],[GradeType]],B21+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E21=ItemTable[[#This Row],[GradeType]],B21+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E21=ItemTable[[#This Row],[GradeType]],B21+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E21=ItemTable[[#This Row],[GradeType]],B21+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E21=ItemTable[[#This Row],[GradeType]],B21+1,4000))</f>
         <v>3003</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>13003</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>23003</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>23</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H22" cm="1">
-        <f t="array" ref="H22">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I22" cm="1">
+        <f t="array" ref="I22">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>8003</v>
       </c>
-      <c r="J22" s="3" t="str">
+      <c r="K22" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>석가면</v>
       </c>
-      <c r="K22" s="3" t="str">
+      <c r="L22" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>[하트]가 1개 증가합니다. 이동속도, 공격속도가 10% 빨라집니다.</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" cm="1">
-        <f t="array" ref="A23">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D22=ItemTable[[#This Row],[GradeType]],A22+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D22=ItemTable[[#This Row],[GradeType]],A22+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D22=ItemTable[[#This Row],[GradeType]],A22+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D22=ItemTable[[#This Row],[GradeType]],A22+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D22=ItemTable[[#This Row],[GradeType]],A22+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D22=ItemTable[[#This Row],[GradeType]],A22+1,4000))</f>
+    <row r="23" spans="2:13">
+      <c r="B23" cm="1">
+        <f t="array" ref="B23">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E22=ItemTable[[#This Row],[GradeType]],B22+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E22=ItemTable[[#This Row],[GradeType]],B22+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E22=ItemTable[[#This Row],[GradeType]],B22+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E22=ItemTable[[#This Row],[GradeType]],B22+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E22=ItemTable[[#This Row],[GradeType]],B22+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E22=ItemTable[[#This Row],[GradeType]],B22+1,4000))</f>
         <v>3004</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>13004</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>23004</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>23</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
       <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H23" cm="1">
-        <f t="array" ref="H23">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I23" cm="1">
+        <f t="array" ref="I23">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>8004</v>
       </c>
-      <c r="J23" s="3" t="str">
+      <c r="K23" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>거인의 주먹</v>
       </c>
-      <c r="K23" s="3" t="str">
+      <c r="L23" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>최대 [하트] 1개 당 5% 만큼 피해량이 증가합니다.</v>
       </c>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" cm="1">
-        <f t="array" ref="A24">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D23=ItemTable[[#This Row],[GradeType]],A23+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D23=ItemTable[[#This Row],[GradeType]],A23+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D23=ItemTable[[#This Row],[GradeType]],A23+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D23=ItemTable[[#This Row],[GradeType]],A23+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D23=ItemTable[[#This Row],[GradeType]],A23+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D23=ItemTable[[#This Row],[GradeType]],A23+1,4000))</f>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" cm="1">
+        <f t="array" ref="B24">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E23=ItemTable[[#This Row],[GradeType]],B23+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E23=ItemTable[[#This Row],[GradeType]],B23+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E23=ItemTable[[#This Row],[GradeType]],B23+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E23=ItemTable[[#This Row],[GradeType]],B23+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E23=ItemTable[[#This Row],[GradeType]],B23+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E23=ItemTable[[#This Row],[GradeType]],B23+1,4000))</f>
         <v>3005</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>13005</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>23005</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>23</v>
       </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H24" cm="1">
-        <f t="array" ref="H24">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I24" cm="1">
+        <f t="array" ref="I24">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>8005</v>
       </c>
-      <c r="J24" s="3" t="str">
+      <c r="K24" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>황금왕의 갑옷</v>
       </c>
-      <c r="K24" s="3" t="str">
+      <c r="L24" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>골드를 20%씩 더 획득합니다.</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" cm="1">
-        <f t="array" ref="A25">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D24=ItemTable[[#This Row],[GradeType]],A24+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D24=ItemTable[[#This Row],[GradeType]],A24+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D24=ItemTable[[#This Row],[GradeType]],A24+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D24=ItemTable[[#This Row],[GradeType]],A24+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D24=ItemTable[[#This Row],[GradeType]],A24+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D24=ItemTable[[#This Row],[GradeType]],A24+1,4000))</f>
+    <row r="25" spans="2:13">
+      <c r="B25" cm="1">
+        <f t="array" ref="B25">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E24=ItemTable[[#This Row],[GradeType]],B24+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E24=ItemTable[[#This Row],[GradeType]],B24+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E24=ItemTable[[#This Row],[GradeType]],B24+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E24=ItemTable[[#This Row],[GradeType]],B24+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E24=ItemTable[[#This Row],[GradeType]],B24+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E24=ItemTable[[#This Row],[GradeType]],B24+1,4000))</f>
         <v>3006</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>13006</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>23006</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H25" cm="1">
-        <f t="array" ref="H25">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I25" cm="1">
+        <f t="array" ref="I25">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>8006</v>
       </c>
-      <c r="J25" s="3" t="str">
+      <c r="K25" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>복사기</v>
       </c>
-      <c r="K25" s="3" t="str">
+      <c r="L25" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>“공이 복사가 된다고” 공 던지기 개수가 2개 증가합니다.</v>
       </c>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" cm="1">
-        <f t="array" ref="A26">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D25=ItemTable[[#This Row],[GradeType]],A25+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D25=ItemTable[[#This Row],[GradeType]],A25+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D25=ItemTable[[#This Row],[GradeType]],A25+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D25=ItemTable[[#This Row],[GradeType]],A25+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D25=ItemTable[[#This Row],[GradeType]],A25+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D25=ItemTable[[#This Row],[GradeType]],A25+1,4000))</f>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" cm="1">
+        <f t="array" ref="B26">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E25=ItemTable[[#This Row],[GradeType]],B25+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E25=ItemTable[[#This Row],[GradeType]],B25+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E25=ItemTable[[#This Row],[GradeType]],B25+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E25=ItemTable[[#This Row],[GradeType]],B25+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E25=ItemTable[[#This Row],[GradeType]],B25+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E25=ItemTable[[#This Row],[GradeType]],B25+1,4000))</f>
         <v>3007</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>13007</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>23007</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H26" cm="1">
-        <f t="array" ref="H26">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I26" cm="1">
+        <f t="array" ref="I26">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>8007</v>
       </c>
-      <c r="J26" s="3" t="str">
+      <c r="K26" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>어른의 카드</v>
       </c>
-      <c r="K26" s="3" t="str">
+      <c r="L26" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>소지중인 골드의 1%만큼 데미지 상승</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="M26" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" cm="1">
-        <f t="array" ref="A27">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D26=ItemTable[[#This Row],[GradeType]],A26+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D26=ItemTable[[#This Row],[GradeType]],A26+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D26=ItemTable[[#This Row],[GradeType]],A26+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D26=ItemTable[[#This Row],[GradeType]],A26+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D26=ItemTable[[#This Row],[GradeType]],A26+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D26=ItemTable[[#This Row],[GradeType]],A26+1,4000))</f>
+    <row r="27" spans="2:13">
+      <c r="B27" cm="1">
+        <f t="array" ref="B27">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E26=ItemTable[[#This Row],[GradeType]],B26+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E26=ItemTable[[#This Row],[GradeType]],B26+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E26=ItemTable[[#This Row],[GradeType]],B26+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E26=ItemTable[[#This Row],[GradeType]],B26+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E26=ItemTable[[#This Row],[GradeType]],B26+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E26=ItemTable[[#This Row],[GradeType]],B26+1,4000))</f>
         <v>3008</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>13008</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>23008</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>23</v>
       </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H27" cm="1">
-        <f t="array" ref="H27">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I27" cm="1">
+        <f t="array" ref="I27">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>8008</v>
       </c>
-      <c r="J27" s="3" t="str">
+      <c r="K27" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>회광반조</v>
       </c>
-      <c r="K27" s="3" t="str">
+      <c r="L27" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>빈 하트 1개당 피해량 5% 상승</v>
       </c>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" cm="1">
-        <f t="array" ref="A28">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D27=ItemTable[[#This Row],[GradeType]],A27+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D27=ItemTable[[#This Row],[GradeType]],A27+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D27=ItemTable[[#This Row],[GradeType]],A27+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D27=ItemTable[[#This Row],[GradeType]],A27+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D27=ItemTable[[#This Row],[GradeType]],A27+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D27=ItemTable[[#This Row],[GradeType]],A27+1,4000))</f>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" cm="1">
+        <f t="array" ref="B28">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E27=ItemTable[[#This Row],[GradeType]],B27+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E27=ItemTable[[#This Row],[GradeType]],B27+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E27=ItemTable[[#This Row],[GradeType]],B27+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E27=ItemTable[[#This Row],[GradeType]],B27+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E27=ItemTable[[#This Row],[GradeType]],B27+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E27=ItemTable[[#This Row],[GradeType]],B27+1,4000))</f>
         <v>3009</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>13009</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>23009</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>23</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
       <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H28" cm="1">
-        <f t="array" ref="H28">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I28" cm="1">
+        <f t="array" ref="I28">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>8009</v>
       </c>
-      <c r="J28" s="3" t="str">
+      <c r="K28" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>이카루스의 날개</v>
       </c>
-      <c r="K28" s="3" t="str">
+      <c r="L28" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>RowCollider을 무시하고 이동함.</v>
       </c>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" cm="1">
-        <f t="array" ref="A29">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D28=ItemTable[[#This Row],[GradeType]],A28+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D28=ItemTable[[#This Row],[GradeType]],A28+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D28=ItemTable[[#This Row],[GradeType]],A28+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D28=ItemTable[[#This Row],[GradeType]],A28+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D28=ItemTable[[#This Row],[GradeType]],A28+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D28=ItemTable[[#This Row],[GradeType]],A28+1,4000))</f>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" cm="1">
+        <f t="array" ref="B29">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E28=ItemTable[[#This Row],[GradeType]],B28+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E28=ItemTable[[#This Row],[GradeType]],B28+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E28=ItemTable[[#This Row],[GradeType]],B28+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E28=ItemTable[[#This Row],[GradeType]],B28+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E28=ItemTable[[#This Row],[GradeType]],B28+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E28=ItemTable[[#This Row],[GradeType]],B28+1,4000))</f>
         <v>3010</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>13010</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>23010</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>23</v>
       </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H29" cm="1">
-        <f t="array" ref="H29">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I29" cm="1">
+        <f t="array" ref="I29">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>8010</v>
       </c>
-      <c r="J29" s="3" t="str">
+      <c r="K29" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>신성한 수류탄</v>
       </c>
-      <c r="K29" s="3" t="str">
+      <c r="L29" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>피해량이 20% 증가합니다.</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" cm="1">
-        <f t="array" ref="A30">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D29=ItemTable[[#This Row],[GradeType]],A29+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D29=ItemTable[[#This Row],[GradeType]],A29+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D29=ItemTable[[#This Row],[GradeType]],A29+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D29=ItemTable[[#This Row],[GradeType]],A29+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D29=ItemTable[[#This Row],[GradeType]],A29+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D29=ItemTable[[#This Row],[GradeType]],A29+1,4000))</f>
+    <row r="30" spans="2:13">
+      <c r="B30" cm="1">
+        <f t="array" ref="B30">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E29=ItemTable[[#This Row],[GradeType]],B29+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E29=ItemTable[[#This Row],[GradeType]],B29+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E29=ItemTable[[#This Row],[GradeType]],B29+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E29=ItemTable[[#This Row],[GradeType]],B29+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E29=ItemTable[[#This Row],[GradeType]],B29+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E29=ItemTable[[#This Row],[GradeType]],B29+1,4000))</f>
         <v>3011</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>13011</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>23011</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>23</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H30" cm="1">
-        <f t="array" ref="H30">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I30" cm="1">
+        <f t="array" ref="I30">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>8011</v>
       </c>
-      <c r="J30" s="3" t="str">
+      <c r="K30" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>슈퍼콜드</v>
       </c>
-      <c r="K30" s="3" t="str">
+      <c r="L30" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>이동하지 않을 때 시간이 멈춤</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="M30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" cm="1">
-        <f t="array" ref="A31">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D30=ItemTable[[#This Row],[GradeType]],A30+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D30=ItemTable[[#This Row],[GradeType]],A30+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D30=ItemTable[[#This Row],[GradeType]],A30+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D30=ItemTable[[#This Row],[GradeType]],A30+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D30=ItemTable[[#This Row],[GradeType]],A30+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D30=ItemTable[[#This Row],[GradeType]],A30+1,4000))</f>
+    <row r="31" spans="2:13">
+      <c r="B31" cm="1">
+        <f t="array" ref="B31">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E30=ItemTable[[#This Row],[GradeType]],B30+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E30=ItemTable[[#This Row],[GradeType]],B30+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E30=ItemTable[[#This Row],[GradeType]],B30+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E30=ItemTable[[#This Row],[GradeType]],B30+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E30=ItemTable[[#This Row],[GradeType]],B30+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E30=ItemTable[[#This Row],[GradeType]],B30+1,4000))</f>
         <v>3012</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>13012</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>23012</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>23</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
       <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H31" cm="1">
-        <f t="array" ref="H31">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I31" cm="1">
+        <f t="array" ref="I31">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>8012</v>
       </c>
-      <c r="J31" s="3" t="str">
+      <c r="K31" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>게이볼그</v>
       </c>
-      <c r="K31" s="3" t="str">
+      <c r="L31" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>공을 칠 때 자동으로 가장 가까운 적을 향해 날라감</v>
       </c>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" cm="1">
-        <f t="array" ref="A32">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D31=ItemTable[[#This Row],[GradeType]],A31+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D31=ItemTable[[#This Row],[GradeType]],A31+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D31=ItemTable[[#This Row],[GradeType]],A31+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D31=ItemTable[[#This Row],[GradeType]],A31+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D31=ItemTable[[#This Row],[GradeType]],A31+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D31=ItemTable[[#This Row],[GradeType]],A31+1,4000))</f>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" cm="1">
+        <f t="array" ref="B32">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E31=ItemTable[[#This Row],[GradeType]],B31+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E31=ItemTable[[#This Row],[GradeType]],B31+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E31=ItemTable[[#This Row],[GradeType]],B31+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E31=ItemTable[[#This Row],[GradeType]],B31+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E31=ItemTable[[#This Row],[GradeType]],B31+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E31=ItemTable[[#This Row],[GradeType]],B31+1,4000))</f>
         <v>4000</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>14000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>24000</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>30</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
       <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H32" cm="1">
-        <f t="array" ref="H32">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I32" cm="1">
+        <f t="array" ref="I32">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>9000</v>
       </c>
-      <c r="J32" s="3" t="str">
+      <c r="K32" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>불길한 깃발</v>
       </c>
-      <c r="K32" s="3" t="str">
+      <c r="L32" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" cm="1">
-        <f t="array" ref="A33">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D32=ItemTable[[#This Row],[GradeType]],A32+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D32=ItemTable[[#This Row],[GradeType]],A32+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D32=ItemTable[[#This Row],[GradeType]],A32+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D32=ItemTable[[#This Row],[GradeType]],A32+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D32=ItemTable[[#This Row],[GradeType]],A32+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D32=ItemTable[[#This Row],[GradeType]],A32+1,4000))</f>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" cm="1">
+        <f t="array" ref="B33">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E32=ItemTable[[#This Row],[GradeType]],B32+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E32=ItemTable[[#This Row],[GradeType]],B32+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E32=ItemTable[[#This Row],[GradeType]],B32+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E32=ItemTable[[#This Row],[GradeType]],B32+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E32=ItemTable[[#This Row],[GradeType]],B32+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E32=ItemTable[[#This Row],[GradeType]],B32+1,4000))</f>
         <v>4001</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>14001</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>24001</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H33" cm="1">
-        <f t="array" ref="H33">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I33" cm="1">
+        <f t="array" ref="I33">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>9001</v>
       </c>
-      <c r="J33" s="3" t="str">
+      <c r="K33" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>빗바랜 천가죽</v>
       </c>
-      <c r="K33" s="3" t="str">
+      <c r="L33" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>이동속도가 20% 감소합니다. 피해량이 20% 감소합니다.</v>
       </c>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" cm="1">
-        <f t="array" ref="A34">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D33=ItemTable[[#This Row],[GradeType]],A33+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D33=ItemTable[[#This Row],[GradeType]],A33+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D33=ItemTable[[#This Row],[GradeType]],A33+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D33=ItemTable[[#This Row],[GradeType]],A33+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D33=ItemTable[[#This Row],[GradeType]],A33+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D33=ItemTable[[#This Row],[GradeType]],A33+1,4000))</f>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" cm="1">
+        <f t="array" ref="B34">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E33=ItemTable[[#This Row],[GradeType]],B33+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E33=ItemTable[[#This Row],[GradeType]],B33+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E33=ItemTable[[#This Row],[GradeType]],B33+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E33=ItemTable[[#This Row],[GradeType]],B33+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E33=ItemTable[[#This Row],[GradeType]],B33+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E33=ItemTable[[#This Row],[GradeType]],B33+1,4000))</f>
         <v>4002</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>14002</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>24002</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>30</v>
       </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
       <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H34" cm="1">
-        <f t="array" ref="H34">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I34" cm="1">
+        <f t="array" ref="I34">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>9002</v>
       </c>
-      <c r="J34" s="3" t="str">
+      <c r="K34" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
-      <c r="K34" s="3" t="str">
+      <c r="L34" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" cm="1">
-        <f t="array" ref="A35">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D34=ItemTable[[#This Row],[GradeType]],A34+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D34=ItemTable[[#This Row],[GradeType]],A34+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D34=ItemTable[[#This Row],[GradeType]],A34+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D34=ItemTable[[#This Row],[GradeType]],A34+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D34=ItemTable[[#This Row],[GradeType]],A34+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D34=ItemTable[[#This Row],[GradeType]],A34+1,4000))</f>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" cm="1">
+        <f t="array" ref="B35">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E34=ItemTable[[#This Row],[GradeType]],B34+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E34=ItemTable[[#This Row],[GradeType]],B34+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E34=ItemTable[[#This Row],[GradeType]],B34+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E34=ItemTable[[#This Row],[GradeType]],B34+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E34=ItemTable[[#This Row],[GradeType]],B34+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E34=ItemTable[[#This Row],[GradeType]],B34+1,4000))</f>
         <v>4003</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>14003</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>24003</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>30</v>
       </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H35" cm="1">
-        <f t="array" ref="H35">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I35" cm="1">
+        <f t="array" ref="I35">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>9003</v>
       </c>
-      <c r="J35" s="3" t="str">
+      <c r="K35" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>저주받은 갑옷</v>
       </c>
-      <c r="K35" s="3" t="str">
+      <c r="L35" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>[하트]가 3개 증가, 이동속도가 40% 느려집니다.</v>
       </c>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" cm="1">
-        <f t="array" ref="A36">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D35=ItemTable[[#This Row],[GradeType]],A35+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D35=ItemTable[[#This Row],[GradeType]],A35+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D35=ItemTable[[#This Row],[GradeType]],A35+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D35=ItemTable[[#This Row],[GradeType]],A35+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D35=ItemTable[[#This Row],[GradeType]],A35+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D35=ItemTable[[#This Row],[GradeType]],A35+1,4000))</f>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" cm="1">
+        <f t="array" ref="B36">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E35=ItemTable[[#This Row],[GradeType]],B35+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E35=ItemTable[[#This Row],[GradeType]],B35+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E35=ItemTable[[#This Row],[GradeType]],B35+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E35=ItemTable[[#This Row],[GradeType]],B35+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E35=ItemTable[[#This Row],[GradeType]],B35+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E35=ItemTable[[#This Row],[GradeType]],B35+1,4000))</f>
         <v>4004</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>14004</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>24004</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>30</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
       <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H36" cm="1">
-        <f t="array" ref="H36">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I36" cm="1">
+        <f t="array" ref="I36">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>9004</v>
       </c>
-      <c r="J36" s="3" t="str">
+      <c r="K36" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>유리 대포</v>
       </c>
-      <c r="K36" s="3" t="str">
+      <c r="L36" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>[하트]가 3개 감소, 피해량이 35% 증가합니다.</v>
       </c>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" cm="1">
-        <f t="array" ref="A37">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D36=ItemTable[[#This Row],[GradeType]],A36+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D36=ItemTable[[#This Row],[GradeType]],A36+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D36=ItemTable[[#This Row],[GradeType]],A36+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D36=ItemTable[[#This Row],[GradeType]],A36+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D36=ItemTable[[#This Row],[GradeType]],A36+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D36=ItemTable[[#This Row],[GradeType]],A36+1,4000))</f>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" cm="1">
+        <f t="array" ref="B37">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E36=ItemTable[[#This Row],[GradeType]],B36+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E36=ItemTable[[#This Row],[GradeType]],B36+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E36=ItemTable[[#This Row],[GradeType]],B36+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E36=ItemTable[[#This Row],[GradeType]],B36+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E36=ItemTable[[#This Row],[GradeType]],B36+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E36=ItemTable[[#This Row],[GradeType]],B36+1,4000))</f>
         <v>4005</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>14005</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>24005</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>30</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
       <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H37" cm="1">
-        <f t="array" ref="H37">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I37" cm="1">
+        <f t="array" ref="I37">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>9005</v>
       </c>
-      <c r="J37" s="3" t="str">
+      <c r="K37" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>청개구리 총</v>
       </c>
-      <c r="K37" s="3" t="str">
+      <c r="L37" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>공격을 반대로 합니다. 대신 피해량이 25% 증가합니다.</v>
       </c>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" cm="1">
-        <f t="array" ref="A38">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D37=ItemTable[[#This Row],[GradeType]],A37+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D37=ItemTable[[#This Row],[GradeType]],A37+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D37=ItemTable[[#This Row],[GradeType]],A37+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D37=ItemTable[[#This Row],[GradeType]],A37+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D37=ItemTable[[#This Row],[GradeType]],A37+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D37=ItemTable[[#This Row],[GradeType]],A37+1,4000))</f>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" cm="1">
+        <f t="array" ref="B38">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E37=ItemTable[[#This Row],[GradeType]],B37+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E37=ItemTable[[#This Row],[GradeType]],B37+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E37=ItemTable[[#This Row],[GradeType]],B37+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E37=ItemTable[[#This Row],[GradeType]],B37+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E37=ItemTable[[#This Row],[GradeType]],B37+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E37=ItemTable[[#This Row],[GradeType]],B37+1,4000))</f>
         <v>4006</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>14006</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>24006</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>30</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
       <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H38" cm="1">
-        <f t="array" ref="H38">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I38" cm="1">
+        <f t="array" ref="I38">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>9006</v>
       </c>
-      <c r="J38" s="3" t="str">
+      <c r="K38" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>불운의 황금상</v>
       </c>
-      <c r="K38" s="3" t="str">
+      <c r="L38" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>더 이상 골드를 획득할 수 없습니다. 데미지가 30% 상승합니다.</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="M38" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" cm="1">
-        <f t="array" ref="A39">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(D38=ItemTable[[#This Row],[GradeType]],A38+1,10),
-ItemTable[[#This Row],[GradeType]]="Gold",IF(D38=ItemTable[[#This Row],[GradeType]],A38+1,20),
-ItemTable[[#This Row],[GradeType]]="Weapon",IF(D38=ItemTable[[#This Row],[GradeType]],A38+1,1000),
-ItemTable[[#This Row],[GradeType]]="Normal",IF(D38=ItemTable[[#This Row],[GradeType]],A38+1,2000),
-ItemTable[[#This Row],[GradeType]]="Rare",IF(D38=ItemTable[[#This Row],[GradeType]],A38+1,3000),
-ItemTable[[#This Row],[GradeType]]="Cursed",IF(D38=ItemTable[[#This Row],[GradeType]],A38+1,4000))</f>
+    <row r="39" spans="2:13">
+      <c r="B39" cm="1">
+        <f t="array" ref="B39">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E38=ItemTable[[#This Row],[GradeType]],B38+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E38=ItemTable[[#This Row],[GradeType]],B38+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E38=ItemTable[[#This Row],[GradeType]],B38+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E38=ItemTable[[#This Row],[GradeType]],B38+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E38=ItemTable[[#This Row],[GradeType]],B38+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E38=ItemTable[[#This Row],[GradeType]],B38+1,4000))</f>
         <v>4007</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
         <v>14007</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
         <v>24007</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>30</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
       <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>2</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</f>
         <v>50</v>
       </c>
-      <c r="H39" cm="1">
-        <f t="array" ref="H39">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+      <c r="I39" cm="1">
+        <f t="array" ref="I39">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>9007</v>
       </c>
-      <c r="J39" s="3" t="str">
+      <c r="K39" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
         <v>저주받은 테니스채</v>
       </c>
-      <c r="K39" s="3" t="str">
+      <c r="L39" s="3" t="str">
         <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
         <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
-      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5673A869-9B45-4719-9164-B902AB01DB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9BB0A3D-27D0-45CC-869B-EE8D8CC87B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8854AF1D-D85D-4DE4-A78E-C85971337BCC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5EAE71DD-B0DB-48E6-ADB9-3B712751EF9F}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{EE27FCB5-4EBA-44A8-B5C0-5A927AAB7BDE}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{5F2F651C-4125-4C35-8307-EB45C69AD161}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EAF39338-294E-46FD-927C-75DA730EC156}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AF76197-870D-4AA0-B153-44E0D51B17C9}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{FC5A7236-4C69-4783-B0C8-35487EA1FB40}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{59880024-8A85-4263-87B0-B47D99F52620}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EB2159B4-38BB-4BB6-BD33-8B33B623DCFA}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{D97E6A7C-F139-4CDB-9E49-1EA0DF93C237}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FF2A4CCC-7EB8-4055-9E0B-B3A89821DDFD}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{5749278E-182C-4A22-9974-277D19789127}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{82467BAD-790D-49E7-B958-DDDA097DF4A6}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{4610C90B-9463-4538-BE14-7196FB090E95}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{947FB289-79D1-4EFE-B409-96C226973031}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{0AEFB640-C187-4327-9E22-B7E309352E21}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{DB891E49-8448-40C8-A761-A8C2C9A241A3}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{CF585B42-1146-4AC0-8404-D60A8B11FB86}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{1B0378F7-995D-45F8-A0AF-AD496984D28E}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{B7CBE9A3-496F-4530-862C-C4443E08F7C1}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{415B94A2-12CB-4E53-8EBB-7D8F34708798}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{F9067D27-018C-48E8-8B2F-52AC08765F05}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{5A6B7F8D-2BD2-4747-B094-011B0DB7AB7B}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{776DC79A-8D64-4492-82AC-471B8A7F6B7C}" name="#이름" dataDxfId="2">
-      <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</calculatedColumnFormula>
+    <tableColumn id="20" xr3:uid="{5DB775A5-080B-421B-91E2-F1ED83E946D3}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{27AD714B-3F9D-4818-A637-D11001D072B3}" name="#이름" dataDxfId="2">
+      <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{F9D654D7-C9D5-4707-88F4-67C8D2A23FEC}" name="#설명" dataDxfId="1">
-      <calculatedColumnFormula>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{04A0ADBB-A868-4A57-9A7E-750138297CE5}" name="#설명" dataDxfId="1">
+      <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{B1EF3CE2-B2CD-490F-9707-FB1F265220C7}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{AA47E28A-1893-4F50-9FF5-581EAABA201E}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,14 +862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B85A20-D44D-4E8B-A9AF-2DB0A26978EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C99C11-51E5-43BC-83F8-F8C3DABE9527}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1001,11 +1001,11 @@
         <v>0</v>
       </c>
       <c r="K3" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>하트 1개</v>
       </c>
       <c r="L3" s="3">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>0</v>
       </c>
       <c r="M3" s="4"/>
@@ -1050,11 +1050,11 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>하트 2개</v>
       </c>
       <c r="L4" s="3">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>0</v>
       </c>
       <c r="M4" s="4"/>
@@ -1099,11 +1099,11 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>15 골드</v>
       </c>
       <c r="L5" s="3">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>0</v>
       </c>
       <c r="M5" s="4"/>
@@ -1148,11 +1148,11 @@
         <v>0</v>
       </c>
       <c r="K6" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>30 골드</v>
       </c>
       <c r="L6" s="3">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>0</v>
       </c>
       <c r="M6" s="4"/>
@@ -1197,11 +1197,11 @@
         <v>0</v>
       </c>
       <c r="K7" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>45 골드</v>
       </c>
       <c r="L7" s="3">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>0</v>
       </c>
       <c r="M7" s="4"/>
@@ -1246,11 +1246,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>60 골드</v>
       </c>
       <c r="L8" s="3">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>0</v>
       </c>
       <c r="M8" s="4"/>
@@ -1295,11 +1295,11 @@
         <v>6000</v>
       </c>
       <c r="K9" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>장난감 배트</v>
       </c>
       <c r="L9" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>아무 능력이 없지만 이동할 때 뾱뾱 소리가 납니다.</v>
       </c>
       <c r="M9" s="4"/>
@@ -1344,11 +1344,11 @@
         <v>6001</v>
       </c>
       <c r="K10" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>무지개빛 총공격</v>
       </c>
       <c r="L10" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>냥냥냥. 모든 탄환이 적을 관통합니다.</v>
       </c>
       <c r="M10" s="4" t="s">
@@ -1395,11 +1395,11 @@
         <v>6002</v>
       </c>
       <c r="K11" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>트럼펫</v>
       </c>
       <c r="L11" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>트럼펫 소리가 납니다. 공격력이 20%증가합니다.</v>
       </c>
       <c r="M11" s="4"/>
@@ -1444,11 +1444,11 @@
         <v>7000</v>
       </c>
       <c r="K12" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>신성한 종</v>
       </c>
       <c r="L12" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 조금 빨라집니다.</v>
       </c>
       <c r="M12" s="4"/>
@@ -1493,11 +1493,11 @@
         <v>7001</v>
       </c>
       <c r="K13" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>미정1</v>
       </c>
       <c r="L13" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>공격 속도 15% 상승</v>
       </c>
       <c r="M13" s="4"/>
@@ -1542,11 +1542,11 @@
         <v>7002</v>
       </c>
       <c r="K14" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>무언가 담긴병</v>
       </c>
       <c r="L14" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도 20% 상승</v>
       </c>
       <c r="M14" s="4"/>
@@ -1591,11 +1591,11 @@
         <v>7003</v>
       </c>
       <c r="K15" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>아저씨의 금구슬</v>
       </c>
       <c r="L15" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>공 크기가 3 커집니다.</v>
       </c>
       <c r="M15" s="4"/>
@@ -1640,11 +1640,11 @@
         <v>7004</v>
       </c>
       <c r="K16" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>작은 십자가</v>
       </c>
       <c r="L16" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>공격 범위가 2 증가합니다.</v>
       </c>
       <c r="M16" s="4"/>
@@ -1689,11 +1689,11 @@
         <v>7005</v>
       </c>
       <c r="K17" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>목없는 갑옷</v>
       </c>
       <c r="L17" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>[하트]가 1개 증가합니다.</v>
       </c>
       <c r="M17" s="4"/>
@@ -1738,11 +1738,11 @@
         <v>7006</v>
       </c>
       <c r="K18" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>미정2</v>
       </c>
       <c r="L18" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>공 던지기 가능 개수가 1개 증가합니다.</v>
       </c>
       <c r="M18" s="4"/>
@@ -1787,11 +1787,11 @@
         <v>8000</v>
       </c>
       <c r="K19" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>Dys : 0N Mk2</v>
       </c>
       <c r="L19" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>차징중에 공을 끌어당김</v>
       </c>
       <c r="M19" s="4" t="s">
@@ -1838,11 +1838,11 @@
         <v>8001</v>
       </c>
       <c r="K20" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>무해한 불꽃</v>
       </c>
       <c r="L20" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>“실례지만 불타고 계십니다” 현재의 이동속도 비례하여 공격속도 증가</v>
       </c>
       <c r="M20" s="4"/>
@@ -1887,11 +1887,11 @@
         <v>8002</v>
       </c>
       <c r="K21" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>롱기누스</v>
       </c>
       <c r="L21" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>[배트]로 쳐낸 공이 적을 관통합니다.</v>
       </c>
       <c r="M21" s="4"/>
@@ -1936,11 +1936,11 @@
         <v>8003</v>
       </c>
       <c r="K22" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>석가면</v>
       </c>
       <c r="L22" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>[하트]가 1개 증가합니다. 이동속도, 공격속도가 10% 빨라집니다.</v>
       </c>
       <c r="M22" s="4" t="s">
@@ -1987,11 +1987,11 @@
         <v>8004</v>
       </c>
       <c r="K23" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>거인의 주먹</v>
       </c>
       <c r="L23" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>최대 [하트] 1개 당 5% 만큼 피해량이 증가합니다.</v>
       </c>
       <c r="M23" s="4"/>
@@ -2036,11 +2036,11 @@
         <v>8005</v>
       </c>
       <c r="K24" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>황금왕의 갑옷</v>
       </c>
       <c r="L24" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>골드를 20%씩 더 획득합니다.</v>
       </c>
       <c r="M24" s="4" t="s">
@@ -2087,11 +2087,11 @@
         <v>8006</v>
       </c>
       <c r="K25" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>복사기</v>
       </c>
       <c r="L25" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>“공이 복사가 된다고” 공 던지기 개수가 2개 증가합니다.</v>
       </c>
       <c r="M25" s="4"/>
@@ -2136,11 +2136,11 @@
         <v>8007</v>
       </c>
       <c r="K26" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>어른의 카드</v>
       </c>
       <c r="L26" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>소지중인 골드의 1%만큼 데미지 상승</v>
       </c>
       <c r="M26" s="4" t="s">
@@ -2187,11 +2187,11 @@
         <v>8008</v>
       </c>
       <c r="K27" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>회광반조</v>
       </c>
       <c r="L27" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>빈 하트 1개당 피해량 5% 상승</v>
       </c>
       <c r="M27" s="4"/>
@@ -2236,11 +2236,11 @@
         <v>8009</v>
       </c>
       <c r="K28" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>이카루스의 날개</v>
       </c>
       <c r="L28" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>RowCollider을 무시하고 이동함.</v>
       </c>
       <c r="M28" s="4"/>
@@ -2285,11 +2285,11 @@
         <v>8010</v>
       </c>
       <c r="K29" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>신성한 수류탄</v>
       </c>
       <c r="L29" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>피해량이 20% 증가합니다.</v>
       </c>
       <c r="M29" s="4" t="s">
@@ -2336,11 +2336,11 @@
         <v>8011</v>
       </c>
       <c r="K30" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>슈퍼콜드</v>
       </c>
       <c r="L30" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>이동하지 않을 때 시간이 멈춤</v>
       </c>
       <c r="M30" s="4" t="s">
@@ -2387,11 +2387,11 @@
         <v>8012</v>
       </c>
       <c r="K31" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>게이볼그</v>
       </c>
       <c r="L31" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>공을 칠 때 자동으로 가장 가까운 적을 향해 날라감</v>
       </c>
       <c r="M31" s="4"/>
@@ -2436,11 +2436,11 @@
         <v>9000</v>
       </c>
       <c r="K32" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>불길한 깃발</v>
       </c>
       <c r="L32" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
       </c>
       <c r="M32" s="4"/>
@@ -2485,11 +2485,11 @@
         <v>9001</v>
       </c>
       <c r="K33" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>빗바랜 천가죽</v>
       </c>
       <c r="L33" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>이동속도가 20% 감소합니다. 피해량이 20% 감소합니다.</v>
       </c>
       <c r="M33" s="4"/>
@@ -2534,11 +2534,11 @@
         <v>9002</v>
       </c>
       <c r="K34" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>나자렛의 몽키스패너</v>
       </c>
       <c r="L34" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
       </c>
       <c r="M34" s="4"/>
@@ -2583,11 +2583,11 @@
         <v>9003</v>
       </c>
       <c r="K35" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 갑옷</v>
       </c>
       <c r="L35" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>[하트]가 3개 증가, 이동속도가 40% 느려집니다.</v>
       </c>
       <c r="M35" s="4"/>
@@ -2632,11 +2632,11 @@
         <v>9004</v>
       </c>
       <c r="K36" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>유리 대포</v>
       </c>
       <c r="L36" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>[하트]가 3개 감소, 피해량이 35% 증가합니다.</v>
       </c>
       <c r="M36" s="4"/>
@@ -2681,11 +2681,11 @@
         <v>9005</v>
       </c>
       <c r="K37" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>청개구리 총</v>
       </c>
       <c r="L37" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>공격을 반대로 합니다. 대신 피해량이 25% 증가합니다.</v>
       </c>
       <c r="M37" s="4"/>
@@ -2730,11 +2730,11 @@
         <v>9006</v>
       </c>
       <c r="K38" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>불운의 황금상</v>
       </c>
       <c r="L38" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>더 이상 골드를 획득할 수 없습니다. 데미지가 30% 상승합니다.</v>
       </c>
       <c r="M38" s="4" t="s">
@@ -2781,11 +2781,11 @@
         <v>9007</v>
       </c>
       <c r="K39" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
         <v>저주받은 테니스채</v>
       </c>
       <c r="L39" s="3" t="str">
-        <f>INDEX([1]!StringTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!StringTable[Index],0))</f>
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
         <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
       </c>
       <c r="M39" s="4"/>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9BB0A3D-27D0-45CC-869B-EE8D8CC87B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9A99A46-D7B2-449A-A53E-62BC56C6DE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5EAE71DD-B0DB-48E6-ADB9-3B712751EF9F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{319497F2-AD14-48AA-97D0-59CFF9D7AB36}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{5F2F651C-4125-4C35-8307-EB45C69AD161}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{B937A4F4-F384-48CC-A8F6-40E0022F7A2C}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8AF76197-870D-4AA0-B153-44E0D51B17C9}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62DA4CD-74E3-44C0-B4C5-ED4CF01E2905}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{59880024-8A85-4263-87B0-B47D99F52620}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{093605FA-CC76-4030-82FD-1A0E51A3E9BE}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D97E6A7C-F139-4CDB-9E49-1EA0DF93C237}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{EB15E26B-B54B-4470-922A-6E0827F8434F}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5749278E-182C-4A22-9974-277D19789127}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{771068E9-F7E4-49DE-8242-9FD637D39CC0}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0AEFB640-C187-4327-9E22-B7E309352E21}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{DB891E49-8448-40C8-A761-A8C2C9A241A3}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{CF585B42-1146-4AC0-8404-D60A8B11FB86}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{640B1F92-3766-4574-A4C3-8ECCC0C41981}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{15973EF1-20D2-40F3-BADD-FD9185AC5EA8}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{0126FAB0-B264-478C-B6CA-AEDEE4F994BB}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{B7CBE9A3-496F-4530-862C-C4443E08F7C1}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{9F538BF9-B6AE-4A56-960A-D0F7134363A4}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{F9067D27-018C-48E8-8B2F-52AC08765F05}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{F25E597E-02D0-4F1E-8673-D9C9C0F742AC}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{5DB775A5-080B-421B-91E2-F1ED83E946D3}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{27AD714B-3F9D-4818-A637-D11001D072B3}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{E0F917E1-6101-49A9-854D-845DB7C95A67}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{ACB7C601-DFDA-4DE3-8107-916CEE8FEC82}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{04A0ADBB-A868-4A57-9A7E-750138297CE5}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{59AE4E47-E0CC-4F81-9C78-98C91A784D90}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AA47E28A-1893-4F50-9FF5-581EAABA201E}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{65272961-93E9-4851-B780-50C6F4BC256D}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C99C11-51E5-43BC-83F8-F8C3DABE9527}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800D29C8-B927-4FDE-BFBF-85A4050931E6}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9A99A46-D7B2-449A-A53E-62BC56C6DE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ACD5D0D-6A28-42FF-8E18-D86740E02DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{319497F2-AD14-48AA-97D0-59CFF9D7AB36}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6183514A-A442-48A8-A0CA-E199DBEBF7AC}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{B937A4F4-F384-48CC-A8F6-40E0022F7A2C}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{AA659310-9141-46FA-AD46-4368282FFE71}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D62DA4CD-74E3-44C0-B4C5-ED4CF01E2905}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03EFB57F-3485-4F79-81CB-6C9F3F78DD85}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{093605FA-CC76-4030-82FD-1A0E51A3E9BE}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{2A65674B-7CCA-412C-87A7-6658A0CF6D84}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EB15E26B-B54B-4470-922A-6E0827F8434F}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{DED5DC1A-91DB-4359-ADA2-9F65D40935CC}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{771068E9-F7E4-49DE-8242-9FD637D39CC0}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{C803D9C8-DD02-4CF6-9C18-F741E8DD5F07}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{640B1F92-3766-4574-A4C3-8ECCC0C41981}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{15973EF1-20D2-40F3-BADD-FD9185AC5EA8}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{0126FAB0-B264-478C-B6CA-AEDEE4F994BB}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{AFC24385-D63D-42F7-BD2A-4229CB25F489}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{C2460E91-177F-4314-AF83-FE10031C4862}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{24CC5A98-B739-47BE-8BF9-2C83B285D57D}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{9F538BF9-B6AE-4A56-960A-D0F7134363A4}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{4C6ACBE1-7A09-4975-9A66-6D5BCF9D2567}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{F25E597E-02D0-4F1E-8673-D9C9C0F742AC}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{EB5A58D3-D8E5-45CB-A760-A6D45DA0A310}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{E0F917E1-6101-49A9-854D-845DB7C95A67}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{ACB7C601-DFDA-4DE3-8107-916CEE8FEC82}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{D6B1B217-298E-4218-BA57-022CF083EA51}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{C43B3089-208D-40C1-9879-C6DBE11F33EF}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{59AE4E47-E0CC-4F81-9C78-98C91A784D90}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{B97FA465-8813-41C5-A647-A97096F006FF}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{65272961-93E9-4851-B780-50C6F4BC256D}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{4688216E-34AE-44F9-BBCC-FC4EA00EFA65}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800D29C8-B927-4FDE-BFBF-85A4050931E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DC867A-351B-4010-B49B-6FB1903DD38A}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ACD5D0D-6A28-42FF-8E18-D86740E02DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B7AF3A-14D7-4EB0-BCCC-3C3BA582990A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6183514A-A442-48A8-A0CA-E199DBEBF7AC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B8075A7-BFB1-4985-B940-4986D2260AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{AA659310-9141-46FA-AD46-4368282FFE71}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{4B59A543-F9C6-437F-B4D8-854D6EE392C5}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03EFB57F-3485-4F79-81CB-6C9F3F78DD85}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1ACC1913-16A3-46BF-9264-F14490386851}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{2A65674B-7CCA-412C-87A7-6658A0CF6D84}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{43FF534E-27EB-4D07-A2B0-6F48428F5D30}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{DED5DC1A-91DB-4359-ADA2-9F65D40935CC}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{91BC1F60-5F0F-47C3-9596-58D87D10BE57}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C803D9C8-DD02-4CF6-9C18-F741E8DD5F07}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{610B1EE6-E32A-471C-9D28-5317F2B5FC61}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AFC24385-D63D-42F7-BD2A-4229CB25F489}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{C2460E91-177F-4314-AF83-FE10031C4862}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{24CC5A98-B739-47BE-8BF9-2C83B285D57D}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{FEBEEAB3-3546-441C-A607-E6A5BA19DEAC}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{AEFE881E-24F7-46A2-B3A0-19F86E2189F3}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{B755A9BE-79F9-49FF-926D-6AAD68979D8F}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{4C6ACBE1-7A09-4975-9A66-6D5BCF9D2567}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{E9DDD913-402D-4A17-9151-5BEE8B5C691B}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{EB5A58D3-D8E5-45CB-A760-A6D45DA0A310}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{4CB36E5A-016B-406F-BD3B-D7CE3538A815}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{D6B1B217-298E-4218-BA57-022CF083EA51}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{C43B3089-208D-40C1-9879-C6DBE11F33EF}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{099CC1B1-9BDF-4FB2-AAB9-02CCE012C998}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{09809274-6B82-413B-BB8D-FD6121478CB1}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{B97FA465-8813-41C5-A647-A97096F006FF}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{59851057-4A9F-46A6-9018-6FDA46D9B3CF}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4688216E-34AE-44F9-BBCC-FC4EA00EFA65}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{857A2969-F236-47DB-BB67-BA7AB77A5E01}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DC867A-351B-4010-B49B-6FB1903DD38A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D62821E-CF51-4270-B229-137BC85DA166}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B7AF3A-14D7-4EB0-BCCC-3C3BA582990A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1E9944F-8E36-42AF-B4F5-9D9B114B9584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B8075A7-BFB1-4985-B940-4986D2260AC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{190299E7-A788-4B2B-9410-72077021D4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{4B59A543-F9C6-437F-B4D8-854D6EE392C5}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A635973A-73FC-481C-96FF-B9D10A4FDB79}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1ACC1913-16A3-46BF-9264-F14490386851}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29209855-9180-4B43-B647-80C59941F9E9}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{43FF534E-27EB-4D07-A2B0-6F48428F5D30}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{0DECFF7D-A8EA-43C6-94CD-065CCC21D5D5}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{91BC1F60-5F0F-47C3-9596-58D87D10BE57}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{298B68D9-4EFE-4EBA-89BD-C9FF5C3C70C4}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{610B1EE6-E32A-471C-9D28-5317F2B5FC61}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{FBF02747-6317-47DF-A41E-F02568B25834}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FEBEEAB3-3546-441C-A607-E6A5BA19DEAC}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{AEFE881E-24F7-46A2-B3A0-19F86E2189F3}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{B755A9BE-79F9-49FF-926D-6AAD68979D8F}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{C36E81E6-8753-4B42-A199-061C06BDF861}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{1885B39F-A4A2-44A2-941A-B691D7CE7BAA}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{732BE953-2F7E-469C-85E2-439760A3EBED}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{E9DDD913-402D-4A17-9151-5BEE8B5C691B}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{142CCE8F-5150-4B7A-A81D-994B4CCC8D2D}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4CB36E5A-016B-406F-BD3B-D7CE3538A815}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{E25E0D9D-F2C3-440B-AF3D-FF0FC86C77BC}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{099CC1B1-9BDF-4FB2-AAB9-02CCE012C998}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{09809274-6B82-413B-BB8D-FD6121478CB1}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{AC0D90A3-8B62-451D-8E02-204F8ED1FDFB}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{BFBCEDF5-466A-49A9-84A3-ADDAE26778A0}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{59851057-4A9F-46A6-9018-6FDA46D9B3CF}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{C96D4D47-50D7-496D-86B1-104038C210FF}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{857A2969-F236-47DB-BB67-BA7AB77A5E01}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{14600E03-0D26-40CC-8863-5B6DBBE3C601}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,14 +862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D62821E-CF51-4270-B229-137BC85DA166}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115F84D1-17A8-4271-B974-B01C1D40D5BC}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1E9944F-8E36-42AF-B4F5-9D9B114B9584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8248CB73-4792-4CEB-A3F4-59C3365C773B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{190299E7-A788-4B2B-9410-72077021D4D5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D10B596D-3A15-4132-AF10-4DF997494036}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A635973A-73FC-481C-96FF-B9D10A4FDB79}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9D878A7B-148A-413D-ACA0-E23AB0B1A57F}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29209855-9180-4B43-B647-80C59941F9E9}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8D8413A-EAA5-4485-84F7-D040AD991DF6}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{0DECFF7D-A8EA-43C6-94CD-065CCC21D5D5}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{116817A6-12F7-4205-9217-E47C9ECF891C}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{298B68D9-4EFE-4EBA-89BD-C9FF5C3C70C4}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{188B2F05-8B76-4B4F-A80A-4EFB28E6222B}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{FBF02747-6317-47DF-A41E-F02568B25834}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{5079EB85-FCE7-4620-8438-FDE96551AA56}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C36E81E6-8753-4B42-A199-061C06BDF861}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{1885B39F-A4A2-44A2-941A-B691D7CE7BAA}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{732BE953-2F7E-469C-85E2-439760A3EBED}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{21611394-96BB-4AB2-BA29-3CB252B8DA5F}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{05B83980-9346-401A-B27D-4C02BABADC8C}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{2F1E0278-9842-4BE4-921A-572F5F10DE24}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{142CCE8F-5150-4B7A-A81D-994B4CCC8D2D}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{C40E5B07-C6BE-4FEF-8DD1-E178E9F6E858}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{E25E0D9D-F2C3-440B-AF3D-FF0FC86C77BC}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{7667DF1B-7ADA-4388-895A-870CDDB780D1}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{AC0D90A3-8B62-451D-8E02-204F8ED1FDFB}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{BFBCEDF5-466A-49A9-84A3-ADDAE26778A0}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{A7DC5A93-E8EA-4113-84E4-32F07E5B8A52}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{E9F8AD21-CCCA-4BA3-A1A8-91D525F21ED7}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C96D4D47-50D7-496D-86B1-104038C210FF}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{0B76B1E1-183A-4706-8F29-42F24CE3170E}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{14600E03-0D26-40CC-8863-5B6DBBE3C601}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{3532C2D2-0AE1-4057-A775-5D3EFBABAE3F}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115F84D1-17A8-4271-B974-B01C1D40D5BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABA2A56-B718-46FB-A872-B1F51E79670A}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8248CB73-4792-4CEB-A3F4-59C3365C773B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69048CE9-8722-4373-9B63-1C166D7AE210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D10B596D-3A15-4132-AF10-4DF997494036}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05437F8D-798A-4F14-84A6-40AB301052DC}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{9D878A7B-148A-413D-ACA0-E23AB0B1A57F}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A9F3FD5C-BF0A-4673-8159-E300E073B72C}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8D8413A-EAA5-4485-84F7-D040AD991DF6}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F3D7A02-A797-499A-A85C-B17EAED119B8}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{116817A6-12F7-4205-9217-E47C9ECF891C}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{FF56CAB7-2FE1-4B89-BB76-D7923E68157F}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{188B2F05-8B76-4B4F-A80A-4EFB28E6222B}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{EFC35C33-E919-43CC-8166-921E15929AC1}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{5079EB85-FCE7-4620-8438-FDE96551AA56}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{E73F871A-9FD1-41A8-8B1F-D3BA529CCDA8}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{21611394-96BB-4AB2-BA29-3CB252B8DA5F}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{05B83980-9346-401A-B27D-4C02BABADC8C}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{2F1E0278-9842-4BE4-921A-572F5F10DE24}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{F27FEADA-1E22-4697-B9C2-B14703AC7617}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{C01B582D-6A67-49B5-9610-CBDE0D7D8D88}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{E43A61AD-FE39-4148-B9A5-41C26B94E6DB}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{C40E5B07-C6BE-4FEF-8DD1-E178E9F6E858}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{0F2A10DD-6678-449B-BABC-C95B684A2353}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{7667DF1B-7ADA-4388-895A-870CDDB780D1}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{795E3F9D-4222-4138-BAC3-357AF3E2FC4C}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{A7DC5A93-E8EA-4113-84E4-32F07E5B8A52}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{E9F8AD21-CCCA-4BA3-A1A8-91D525F21ED7}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{6752A634-DB9C-432E-9982-B923380C7A38}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{60B10D21-5981-4B15-BC82-71DCBBC5D97A}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0B76B1E1-183A-4706-8F29-42F24CE3170E}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{CCB21169-48A4-4851-960B-ED885B311972}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3532C2D2-0AE1-4057-A775-5D3EFBABAE3F}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{0DD0363E-A3B9-48F2-BF46-DE99BCD6E7E3}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,14 +862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABA2A56-B718-46FB-A872-B1F51E79670A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C99AA9-528C-4CF1-A4DD-9914BFDB5C90}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69048CE9-8722-4373-9B63-1C166D7AE210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{619226CE-FA39-43A6-9B54-28216EC57CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{05437F8D-798A-4F14-84A6-40AB301052DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96FD5212-004B-4D57-B8F3-3A08F19647EA}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{A9F3FD5C-BF0A-4673-8159-E300E073B72C}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{F1FF1382-6B1E-4BED-BD25-C2BEEC291479}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F3D7A02-A797-499A-A85C-B17EAED119B8}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB1F8DCE-25DB-4AA3-9A3D-65B1B19C783D}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{FF56CAB7-2FE1-4B89-BB76-D7923E68157F}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{4E125970-ADF1-417C-88DA-4263916348A0}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{EFC35C33-E919-43CC-8166-921E15929AC1}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{655732B2-8A9A-40AE-80B3-F24189E382B1}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E73F871A-9FD1-41A8-8B1F-D3BA529CCDA8}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{0D8661CB-A7E8-4550-B21F-9118FD641C34}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F27FEADA-1E22-4697-B9C2-B14703AC7617}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{C01B582D-6A67-49B5-9610-CBDE0D7D8D88}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{E43A61AD-FE39-4148-B9A5-41C26B94E6DB}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{445FD96E-0F5D-4DF5-945A-D0CD4D28DB34}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{3E2004D5-2925-46F8-9571-21B0D15069A7}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{31C07E0A-AC7A-4503-BFD5-273E6E4B3C43}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{0F2A10DD-6678-449B-BABC-C95B684A2353}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{7E253689-7CA3-4706-A9D2-72AAC05BD662}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{795E3F9D-4222-4138-BAC3-357AF3E2FC4C}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{5974B445-D696-4B94-ABA6-B1C556C19605}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{6752A634-DB9C-432E-9982-B923380C7A38}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{60B10D21-5981-4B15-BC82-71DCBBC5D97A}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{2F4A7B55-C2AA-4262-B28B-149E0EFB13B0}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{2635AF19-B645-41BC-80AF-524A2EA98C5A}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{CCB21169-48A4-4851-960B-ED885B311972}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{BF65C487-F602-41C8-8274-E70FFB4FF62E}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0DD0363E-A3B9-48F2-BF46-DE99BCD6E7E3}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{9F7368A7-1CE3-4E03-B291-99F4E3D6593A}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C99AA9-528C-4CF1-A4DD-9914BFDB5C90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BA75EE-0784-47BA-AD9A-864CEF632A39}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{619226CE-FA39-43A6-9B54-28216EC57CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C12877BA-6927-4049-8940-BC8656509921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96FD5212-004B-4D57-B8F3-3A08F19647EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD4C851C-B92B-4BAD-A6CB-97029B872A12}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{F1FF1382-6B1E-4BED-BD25-C2BEEC291479}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{15051A7F-7A2A-4BCB-BFC2-72BBF9BC90B9}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB1F8DCE-25DB-4AA3-9A3D-65B1B19C783D}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B03BE9DB-6CF6-4634-8877-813762E124DD}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{4E125970-ADF1-417C-88DA-4263916348A0}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{5BDCE21D-50DF-4552-A58F-BBCEBA2559DE}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{655732B2-8A9A-40AE-80B3-F24189E382B1}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{FE4E26E9-7FF9-4E73-ACB8-08F53A879756}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0D8661CB-A7E8-4550-B21F-9118FD641C34}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{83CFEC71-5B83-485E-B6C0-C3606CF1C078}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{445FD96E-0F5D-4DF5-945A-D0CD4D28DB34}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{3E2004D5-2925-46F8-9571-21B0D15069A7}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{31C07E0A-AC7A-4503-BFD5-273E6E4B3C43}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{FD87F87C-C1E3-4B6A-A936-F7B83FA7773C}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{CDAD6A23-76B0-4BCB-BF4C-A8616CB68AC0}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{5DB3EDF5-CF4C-4EAC-8560-96E66EFF2172}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{7E253689-7CA3-4706-A9D2-72AAC05BD662}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{E285B7DD-4347-46B2-A339-D826CF768922}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{5974B445-D696-4B94-ABA6-B1C556C19605}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{3F4C7303-4363-4E1D-B5EC-027901C2A9D7}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{2F4A7B55-C2AA-4262-B28B-149E0EFB13B0}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{2635AF19-B645-41BC-80AF-524A2EA98C5A}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{22A0474E-1960-49D1-A8ED-F383934B6492}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{BE5B1BDD-AD00-482D-AC7C-AC2338A092BB}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{BF65C487-F602-41C8-8274-E70FFB4FF62E}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{3ABB6832-EE14-4310-9712-297A336AFC95}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9F7368A7-1CE3-4E03-B291-99F4E3D6593A}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{280835C3-E8C4-411F-BC2B-A34A26F6E43F}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00BA75EE-0784-47BA-AD9A-864CEF632A39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771DFC9D-8BB2-4D8E-BCA8-C774765C79A6}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C12877BA-6927-4049-8940-BC8656509921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5A6EBBA-F42A-403A-A61F-E2BE1B1B1032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CD4C851C-B92B-4BAD-A6CB-97029B872A12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A369A377-2A99-4923-9BD3-313FECD7D133}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{15051A7F-7A2A-4BCB-BFC2-72BBF9BC90B9}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{044CE421-3541-4E28-93C5-59B8211D0550}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B03BE9DB-6CF6-4634-8877-813762E124DD}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9EDD9C2-C175-4BCE-93E0-357B8B56E7BB}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{5BDCE21D-50DF-4552-A58F-BBCEBA2559DE}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{7AE81391-A125-4E84-9656-351DFD8FC537}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FE4E26E9-7FF9-4E73-ACB8-08F53A879756}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{258E80A9-553B-48CC-ADE2-01BF86EBEAE3}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{83CFEC71-5B83-485E-B6C0-C3606CF1C078}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{B0E682BD-C819-4950-B2DA-AC881DB847BC}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{FD87F87C-C1E3-4B6A-A936-F7B83FA7773C}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{CDAD6A23-76B0-4BCB-BF4C-A8616CB68AC0}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{5DB3EDF5-CF4C-4EAC-8560-96E66EFF2172}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{DC9C4EDD-F133-44C6-8855-AB9B345CD7F5}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{59A25766-668F-4BCE-9BA4-4954F3644C3C}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{5D01FF25-31FA-4F41-8CB7-5AE5D8064046}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{E285B7DD-4347-46B2-A339-D826CF768922}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{B861DFF4-C5EE-43E4-9C76-039FF91298C2}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{3F4C7303-4363-4E1D-B5EC-027901C2A9D7}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{CCD3A1AC-0140-4FEA-BCAD-99C195DFA066}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{22A0474E-1960-49D1-A8ED-F383934B6492}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{BE5B1BDD-AD00-482D-AC7C-AC2338A092BB}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{CB8C8382-A4F4-4238-ADEA-8B31869C3741}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{4CCB8347-51CE-42EE-8F23-22120F64E66E}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{3ABB6832-EE14-4310-9712-297A336AFC95}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{702A3FC2-1DC9-46BC-9E57-BFA3E83A23A5}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{280835C3-E8C4-411F-BC2B-A34A26F6E43F}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{3B45C963-FBD2-40D4-9BD7-C8CA73BA3973}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771DFC9D-8BB2-4D8E-BCA8-C774765C79A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFC51A6-06F6-4689-B950-7A11B8A0343A}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5A6EBBA-F42A-403A-A61F-E2BE1B1B1032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEEA7521-76B5-47FB-8377-BCFF94607888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A369A377-2A99-4923-9BD3-313FECD7D133}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9425B1B8-F473-4E7D-B4E5-E95252B34AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{044CE421-3541-4E28-93C5-59B8211D0550}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D0CC3E7C-BBDA-489D-9107-CB5156F02DE3}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C9EDD9C2-C175-4BCE-93E0-357B8B56E7BB}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{414BE545-7DCE-4751-B41A-41D272C8F4B5}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{7AE81391-A125-4E84-9656-351DFD8FC537}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{4CE06FA4-DA2C-4E9A-87D6-3D8B5D90AF00}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{258E80A9-553B-48CC-ADE2-01BF86EBEAE3}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{2935C00D-4A73-4B40-86E1-9739B3FBB1F4}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B0E682BD-C819-4950-B2DA-AC881DB847BC}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{D8A6B578-667E-40C2-940C-EE234C3A36B4}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DC9C4EDD-F133-44C6-8855-AB9B345CD7F5}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{59A25766-668F-4BCE-9BA4-4954F3644C3C}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{5D01FF25-31FA-4F41-8CB7-5AE5D8064046}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{E1CBF2EB-1E37-4C98-BFEC-7D41177F09EB}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{72F2C0A3-A3C5-486B-80FB-38ECAFA11D09}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{82852FF6-A4DC-4FA2-AAB0-AD31610CAFF0}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{B861DFF4-C5EE-43E4-9C76-039FF91298C2}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{42CF7455-A816-48A3-AE23-31AF7DC9C53F}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{CCD3A1AC-0140-4FEA-BCAD-99C195DFA066}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{EDEE0363-687B-4993-B31C-5289FDAD83B0}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{CB8C8382-A4F4-4238-ADEA-8B31869C3741}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{4CCB8347-51CE-42EE-8F23-22120F64E66E}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{672746F7-152A-491E-AFEA-3534AAD82A04}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{B4077F8D-DD5E-4796-85DB-5B045FC2E7E3}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{702A3FC2-1DC9-46BC-9E57-BFA3E83A23A5}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{4C4DDE88-CB7D-4A50-8D49-92B4AC5DA2B8}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3B45C963-FBD2-40D4-9BD7-C8CA73BA3973}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{73F55959-26DE-4785-BDA7-C0777A82476D}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFC51A6-06F6-4689-B950-7A11B8A0343A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29933B7A-B251-468E-B473-45ED4B0CFB07}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEEA7521-76B5-47FB-8377-BCFF94607888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41F1D155-9877-43CB-9862-76397A4CC621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9425B1B8-F473-4E7D-B4E5-E95252B34AB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2DB9CD6-335D-425D-9578-A911B7431758}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D0CC3E7C-BBDA-489D-9107-CB5156F02DE3}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{B28867D6-A207-4C7A-9F76-1E7C81ECAFF5}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{414BE545-7DCE-4751-B41A-41D272C8F4B5}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0B59F35-68F6-4A46-8EDC-F58F3BDBA305}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{4CE06FA4-DA2C-4E9A-87D6-3D8B5D90AF00}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{7718B950-CEB5-4482-AAA5-BDF87E193D1E}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2935C00D-4A73-4B40-86E1-9739B3FBB1F4}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{F9BB8009-0072-497C-9A98-45CA31EAB281}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8A6B578-667E-40C2-940C-EE234C3A36B4}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{DABBFE34-DB41-4721-BEF8-6887FF03CA73}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E1CBF2EB-1E37-4C98-BFEC-7D41177F09EB}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{72F2C0A3-A3C5-486B-80FB-38ECAFA11D09}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{82852FF6-A4DC-4FA2-AAB0-AD31610CAFF0}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{6EF4F6D1-5E10-4321-9601-374AD58A8375}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{679AD8DD-791A-4A28-8C53-F7B41C6EC968}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{1C9FAB9F-0BBA-44B1-8D56-90274688432C}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{42CF7455-A816-48A3-AE23-31AF7DC9C53F}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{1933241F-7923-49AD-95C4-8ECCF75E5B3F}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{EDEE0363-687B-4993-B31C-5289FDAD83B0}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{EE919D91-511E-463B-9B2B-CF14E3498248}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{672746F7-152A-491E-AFEA-3534AAD82A04}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{B4077F8D-DD5E-4796-85DB-5B045FC2E7E3}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{D8DF73B5-07D8-4145-9074-9C07450837FE}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{82350459-DE78-4B88-AC00-82995D29205D}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{4C4DDE88-CB7D-4A50-8D49-92B4AC5DA2B8}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{DB1D588B-5386-4A69-AEB8-007D986DD228}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{73F55959-26DE-4785-BDA7-C0777A82476D}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{FD75BF6D-8898-460F-BDB4-E37B570612B0}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,14 +862,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29933B7A-B251-468E-B473-45ED4B0CFB07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32955DD-4C62-47AD-92D5-EA74D5CC0B81}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="L13" s="3" t="str">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
-        <v>공격 속도 15% 상승</v>
+        <v>골드를 20% 더 많이 획득할 수 있습니다.</v>
       </c>
       <c r="M13" s="4"/>
     </row>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41F1D155-9877-43CB-9862-76397A4CC621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D134D8D2-6D9C-4E37-8A8A-57FAEE657C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2DB9CD6-335D-425D-9578-A911B7431758}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FE21D80-A7E7-46AE-B278-8E97D09DAF43}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{B28867D6-A207-4C7A-9F76-1E7C81ECAFF5}">
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{56C7A802-5BA5-4B60-9C3E-032EB6D28449}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -522,10 +522,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0B59F35-68F6-4A46-8EDC-F58F3BDBA305}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B6B5E6C9-B26C-409D-ACAF-D4B3AA263B84}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="12">
-    <tableColumn id="2" xr3:uid="{7718B950-CEB5-4482-AAA5-BDF87E193D1E}" name="Index" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{4B32789B-F0E9-4427-A622-B7FA156FE5FE}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -533,34 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{F9BB8009-0072-497C-9A98-45CA31EAB281}" name="Name" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{3E8A0EB5-153F-4120-A2BF-21541E40F438}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DABBFE34-DB41-4721-BEF8-6887FF03CA73}" name="Desc" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{F1F534B0-1AFD-499A-8632-0469D54F70E7}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6EF4F6D1-5E10-4321-9601-374AD58A8375}" name="GradeType" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{679AD8DD-791A-4A28-8C53-F7B41C6EC968}" name="Value" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{1C9FAB9F-0BBA-44B1-8D56-90274688432C}" name="CostHp" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{40DF3E97-D858-4FCC-8649-8742E98FDF30}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{F38A9479-2A67-444F-A4D7-D0B8B5A3E61D}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{CA9CC3C7-63E4-489F-9196-15BE5478DEE2}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{1933241F-7923-49AD-95C4-8ECCF75E5B3F}" name="CostGold" dataDxfId="5">
+    <tableColumn id="23" xr3:uid="{36781EF9-6506-4552-8F58-ABE8752ABEB6}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{EE919D91-511E-463B-9B2B-CF14E3498248}" name="ItemEffectDataId" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{847C2C3A-508D-44C8-B868-8671AB7F72E7}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{D8DF73B5-07D8-4145-9074-9C07450837FE}" name="ItemIconPath" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{82350459-DE78-4B88-AC00-82995D29205D}" name="#이름" dataDxfId="2">
+    <tableColumn id="20" xr3:uid="{E703FB97-6ABF-4607-ACBD-3C6DA91C58B9}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{5F657917-5510-4539-A908-371ABD2A91FE}" name="#이름" dataDxfId="2">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{DB1D588B-5386-4A69-AEB8-007D986DD228}" name="#설명" dataDxfId="1">
+    <tableColumn id="16" xr3:uid="{13A8057C-9EFD-4A42-AC04-46F5961CB8E2}" name="#설명" dataDxfId="1">
       <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FD75BF6D-8898-460F-BDB4-E37B570612B0}" name="#패러디" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{937EBFC4-678F-4C38-AA82-CFC6592815AF}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -862,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32955DD-4C62-47AD-92D5-EA74D5CC0B81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCAC2EC3-4E9D-4A8A-9564-3CE3B7A71E52}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bangseoghyeon/Develop/QT_Proto/_GameData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\224dj\Desktop\테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BEB243-1836-DE4F-B50A-46FBB8A88863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D79C16-5177-4E92-B387-05855BC8D19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="5420" windowWidth="29040" windowHeight="15840" xr2:uid="{9425B1B8-F473-4E7D-B4E5-E95252B34AB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B2D7236-FFCB-4194-B4B3-805CCD5640F4}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
   <si>
     <t>Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,15 +123,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#패러디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롤 - 룰루 맞죠?</t>
+  </si>
+  <si>
     <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이슨 청소기</t>
+  </si>
+  <si>
+    <t>죠죠</t>
+  </si>
+  <si>
+    <t>페이트 - 길가메시</t>
+  </si>
+  <si>
+    <t>블루아카이브</t>
+  </si>
+  <si>
+    <t>몬티파이튼의 성배</t>
+  </si>
+  <si>
+    <t>슈퍼 핫</t>
+  </si>
+  <si>
+    <t>Cursed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007 북경특급</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,13 +203,45 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -166,15 +258,53 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -327,11 +457,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{D0CC3E7C-BBDA-489D-9107-CB5156F02DE3}">
-      <tableStyleElement type="wholeTable" dxfId="13"/>
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+    <tableStyle name="표 스타일 1" pivot="0" count="4" xr9:uid="{EB955ACF-5B7A-49DA-899F-E88275077BC4}">
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -346,8 +476,11 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="시트별저장버튼"/>
       <sheetName val="아이템 밸런스 시트"/>
@@ -365,7 +498,6 @@
       <sheetName val="ItemEffectGameData"/>
       <sheetName val="ItemResourceGameData"/>
       <sheetName val="LocaleGameData"/>
-      <sheetName val="_QT_Develop_Table"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -384,17 +516,16 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{414BE545-7DCE-4751-B41A-41D272C8F4B5}" name="ItemTable" displayName="ItemTable" ref="B2:J39" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="B2:J39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{4CE06FA4-DA2C-4E9A-87D6-3D8B5D90AF00}" name="Index" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0D572BD-DA03-43A9-B281-056BF19FAF43}" name="ItemTable" displayName="ItemTable" ref="B2:M39" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="B2:M39" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="2" xr3:uid="{A6EDBD7F-BCAF-4908-A2B5-9A3680BC6486}" name="Index" dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
 ItemTable[[#This Row],[GradeType]]="Weapon",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,1000),
@@ -402,27 +533,34 @@
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{2935C00D-4A73-4B40-86E1-9739B3FBB1F4}" name="Name" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{BCA7E94D-A985-4569-8B1B-C8CF7D26DF4A}" name="Name" dataDxfId="10">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D8A6B578-667E-40C2-940C-EE234C3A36B4}" name="Desc" dataDxfId="6">
+    <tableColumn id="7" xr3:uid="{A5D2AA99-D9E1-4942-B4B6-A27F67C726FC}" name="Desc" dataDxfId="9">
       <calculatedColumnFormula>ItemTable[[#This Row],[Index]]+20000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E1CBF2EB-1E37-4C98-BFEC-7D41177F09EB}" name="GradeType" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{72F2C0A3-A3C5-486B-80FB-38ECAFA11D09}" name="Value" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{82852FF6-A4DC-4FA2-AAB0-AD31610CAFF0}" name="CostHp" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{ECF286BD-655F-4900-9933-BE01180D909B}" name="GradeType" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{B3C7BE11-83EB-4D89-BC35-284066FBAFB5}" name="Value" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{F3C2A93C-B662-45FB-8856-AE6EE4C8F384}" name="CostHp" dataDxfId="6">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{42CF7455-A816-48A3-AE23-31AF7DC9C53F}" name="CostGold" dataDxfId="2">
+    <tableColumn id="23" xr3:uid="{9FA90496-9A1C-4F4C-B4B8-65C498864B14}" name="CostGold" dataDxfId="5">
       <calculatedColumnFormula>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
 *ItemTable[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{EDEE0363-687B-4993-B31C-5289FDAD83B0}" name="ItemEffectDataId" dataDxfId="1">
+    <tableColumn id="19" xr3:uid="{482B2A64-8B2A-49D0-8FC8-2878DE97F176}" name="ItemEffectDataId" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{672746F7-152A-491E-AFEA-3534AAD82A04}" name="ItemIconPath" dataDxfId="0"/>
+    <tableColumn id="20" xr3:uid="{5718323A-0DC3-46A7-9A3C-5AED3FDDEBE0}" name="ItemIconPath" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{E190AC91-9A72-42EE-87B7-69BD983D8F72}" name="#이름" dataDxfId="2">
+      <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{DF93E9AF-6CA5-4C9F-B358-BB9C2E5340BC}" name="#설명" dataDxfId="1">
+      <calculatedColumnFormula>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{5F3A73F5-56DF-49A2-A092-A4761BCDA15C}" name="#패러디" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="표 스타일 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -724,27 +862,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29933B7A-B251-468E-B473-45ED4B0CFB07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43F4305-8BC2-4758-BA6D-B3BBD0595C7C}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:J4"/>
+  <dimension ref="B1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="69.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -772,37 +913,55 @@
       <c r="J1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="2:10">
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3" cm="1">
         <f t="array" ref="B3">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,20),
@@ -810,35 +969,48 @@
 ItemTable[[#This Row],[GradeType]]="Normal",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E2=ItemTable[[#This Row],[GradeType]],B2+1,4000))</f>
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
-        <v>12000</v>
+        <v>10010</v>
       </c>
       <c r="D3">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
-        <v>22000</v>
+        <v>20010</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>10</v>
       </c>
       <c r="I3" cm="1">
         <f t="array" ref="I3">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>하트 1개</v>
+      </c>
+      <c r="L3" s="3">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4" cm="1">
         <f t="array" ref="B4">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E3=ItemTable[[#This Row],[GradeType]],B3+1,10),
 ItemTable[[#This Row],[GradeType]]="Gold",IF(E3=ItemTable[[#This Row],[GradeType]],B3+1,20),
@@ -846,33 +1018,1777 @@
 ItemTable[[#This Row],[GradeType]]="Normal",IF(E3=ItemTable[[#This Row],[GradeType]],B3+1,2000),
 ItemTable[[#This Row],[GradeType]]="Rare",IF(E3=ItemTable[[#This Row],[GradeType]],B3+1,3000),
 ItemTable[[#This Row],[GradeType]]="Cursed",IF(E3=ItemTable[[#This Row],[GradeType]],B3+1,4000))</f>
-        <v>2001</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <f>ItemTable[[#This Row],[Index]]+10000</f>
-        <v>12001</v>
+        <v>10011</v>
       </c>
       <c r="D4">
         <f>ItemTable[[#This Row],[Index]]+20000</f>
-        <v>22001</v>
+        <v>20011</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>20</v>
       </c>
       <c r="I4" cm="1">
         <f t="array" ref="I4">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
 TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>하트 2개</v>
+      </c>
+      <c r="L4" s="3">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" cm="1">
+        <f t="array" ref="B5">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E4=ItemTable[[#This Row],[GradeType]],B4+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E4=ItemTable[[#This Row],[GradeType]],B4+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E4=ItemTable[[#This Row],[GradeType]],B4+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E4=ItemTable[[#This Row],[GradeType]],B4+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E4=ItemTable[[#This Row],[GradeType]],B4+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E4=ItemTable[[#This Row],[GradeType]],B4+1,4000))</f>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>10020</v>
+      </c>
+      <c r="D5">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>20020</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" cm="1">
+        <f t="array" ref="I5">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>15 골드</v>
+      </c>
+      <c r="L5" s="3">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" cm="1">
+        <f t="array" ref="B6">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E5=ItemTable[[#This Row],[GradeType]],B5+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E5=ItemTable[[#This Row],[GradeType]],B5+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E5=ItemTable[[#This Row],[GradeType]],B5+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E5=ItemTable[[#This Row],[GradeType]],B5+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E5=ItemTable[[#This Row],[GradeType]],B5+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E5=ItemTable[[#This Row],[GradeType]],B5+1,4000))</f>
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>10021</v>
+      </c>
+      <c r="D6">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>20021</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>30 골드</v>
+      </c>
+      <c r="L6" s="3">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" cm="1">
+        <f t="array" ref="B7">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E6=ItemTable[[#This Row],[GradeType]],B6+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E6=ItemTable[[#This Row],[GradeType]],B6+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E6=ItemTable[[#This Row],[GradeType]],B6+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E6=ItemTable[[#This Row],[GradeType]],B6+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E6=ItemTable[[#This Row],[GradeType]],B6+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E6=ItemTable[[#This Row],[GradeType]],B6+1,4000))</f>
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>10022</v>
+      </c>
+      <c r="D7">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>20022</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" cm="1">
+        <f t="array" ref="I7">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>45 골드</v>
+      </c>
+      <c r="L7" s="3">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" cm="1">
+        <f t="array" ref="B8">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E7=ItemTable[[#This Row],[GradeType]],B7+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E7=ItemTable[[#This Row],[GradeType]],B7+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E7=ItemTable[[#This Row],[GradeType]],B7+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E7=ItemTable[[#This Row],[GradeType]],B7+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E7=ItemTable[[#This Row],[GradeType]],B7+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E7=ItemTable[[#This Row],[GradeType]],B7+1,4000))</f>
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>10023</v>
+      </c>
+      <c r="D8">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>20023</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>60 골드</v>
+      </c>
+      <c r="L8" s="3">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" cm="1">
+        <f t="array" ref="B9">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E8=ItemTable[[#This Row],[GradeType]],B8+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E8=ItemTable[[#This Row],[GradeType]],B8+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E8=ItemTable[[#This Row],[GradeType]],B8+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E8=ItemTable[[#This Row],[GradeType]],B8+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E8=ItemTable[[#This Row],[GradeType]],B8+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E8=ItemTable[[#This Row],[GradeType]],B8+1,4000))</f>
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>11000</v>
+      </c>
+      <c r="D9">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>21000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>6000</v>
+      </c>
+      <c r="K9" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>장난감 배트</v>
+      </c>
+      <c r="L9" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>아무 능력이 없지만 이동할 때 뾱뾱 소리가 납니다.</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" cm="1">
+        <f t="array" ref="B10">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E9=ItemTable[[#This Row],[GradeType]],B9+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E9=ItemTable[[#This Row],[GradeType]],B9+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E9=ItemTable[[#This Row],[GradeType]],B9+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E9=ItemTable[[#This Row],[GradeType]],B9+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E9=ItemTable[[#This Row],[GradeType]],B9+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E9=ItemTable[[#This Row],[GradeType]],B9+1,4000))</f>
+        <v>1001</v>
+      </c>
+      <c r="C10">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>11001</v>
+      </c>
+      <c r="D10">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>21001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>6001</v>
+      </c>
+      <c r="K10" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>무지개빛 총공격</v>
+      </c>
+      <c r="L10" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>냥냥냥. 모든 탄환이 적을 관통합니다.</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" cm="1">
+        <f t="array" ref="B11">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E10=ItemTable[[#This Row],[GradeType]],B10+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E10=ItemTable[[#This Row],[GradeType]],B10+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E10=ItemTable[[#This Row],[GradeType]],B10+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E10=ItemTable[[#This Row],[GradeType]],B10+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E10=ItemTable[[#This Row],[GradeType]],B10+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E10=ItemTable[[#This Row],[GradeType]],B10+1,4000))</f>
+        <v>1002</v>
+      </c>
+      <c r="C11">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>11002</v>
+      </c>
+      <c r="D11">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>21002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>6002</v>
+      </c>
+      <c r="K11" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>트럼펫</v>
+      </c>
+      <c r="L11" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>트럼펫 소리가 납니다. 공격력이 20%증가합니다.</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" cm="1">
+        <f t="array" ref="B12">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E11=ItemTable[[#This Row],[GradeType]],B11+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E11=ItemTable[[#This Row],[GradeType]],B11+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E11=ItemTable[[#This Row],[GradeType]],B11+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E11=ItemTable[[#This Row],[GradeType]],B11+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E11=ItemTable[[#This Row],[GradeType]],B11+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E11=ItemTable[[#This Row],[GradeType]],B11+1,4000))</f>
+        <v>2000</v>
+      </c>
+      <c r="C12">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12000</v>
+      </c>
+      <c r="D12">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>30</v>
+      </c>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>7000</v>
+      </c>
+      <c r="K12" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>신성한 종</v>
+      </c>
+      <c r="L12" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>이동속도가 조금 빨라집니다.</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" cm="1">
+        <f t="array" ref="B13">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E12=ItemTable[[#This Row],[GradeType]],B12+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E12=ItemTable[[#This Row],[GradeType]],B12+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E12=ItemTable[[#This Row],[GradeType]],B12+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E12=ItemTable[[#This Row],[GradeType]],B12+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E12=ItemTable[[#This Row],[GradeType]],B12+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E12=ItemTable[[#This Row],[GradeType]],B12+1,4000))</f>
+        <v>2001</v>
+      </c>
+      <c r="C13">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12001</v>
+      </c>
+      <c r="D13">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>30</v>
+      </c>
+      <c r="I13" cm="1">
+        <f t="array" ref="I13">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
         <v>7001</v>
       </c>
+      <c r="K13" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>미정1</v>
+      </c>
+      <c r="L13" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>골드를 20% 더 많이 획득할 수 있습니다.</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" cm="1">
+        <f t="array" ref="B14">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E13=ItemTable[[#This Row],[GradeType]],B13+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E13=ItemTable[[#This Row],[GradeType]],B13+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E13=ItemTable[[#This Row],[GradeType]],B13+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E13=ItemTable[[#This Row],[GradeType]],B13+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E13=ItemTable[[#This Row],[GradeType]],B13+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E13=ItemTable[[#This Row],[GradeType]],B13+1,4000))</f>
+        <v>2002</v>
+      </c>
+      <c r="C14">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12002</v>
+      </c>
+      <c r="D14">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22002</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>30</v>
+      </c>
+      <c r="I14" cm="1">
+        <f t="array" ref="I14">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>7002</v>
+      </c>
+      <c r="K14" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>무언가 담긴병</v>
+      </c>
+      <c r="L14" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>차징 속도 20% 상승</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" cm="1">
+        <f t="array" ref="B15">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E14=ItemTable[[#This Row],[GradeType]],B14+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E14=ItemTable[[#This Row],[GradeType]],B14+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E14=ItemTable[[#This Row],[GradeType]],B14+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E14=ItemTable[[#This Row],[GradeType]],B14+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E14=ItemTable[[#This Row],[GradeType]],B14+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E14=ItemTable[[#This Row],[GradeType]],B14+1,4000))</f>
+        <v>2003</v>
+      </c>
+      <c r="C15">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12003</v>
+      </c>
+      <c r="D15">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22003</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>30</v>
+      </c>
+      <c r="I15" cm="1">
+        <f t="array" ref="I15">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>7003</v>
+      </c>
+      <c r="K15" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>아저씨의 금구슬</v>
+      </c>
+      <c r="L15" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>공 크기가 3 커집니다.</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" cm="1">
+        <f t="array" ref="B16">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E15=ItemTable[[#This Row],[GradeType]],B15+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E15=ItemTable[[#This Row],[GradeType]],B15+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E15=ItemTable[[#This Row],[GradeType]],B15+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E15=ItemTable[[#This Row],[GradeType]],B15+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E15=ItemTable[[#This Row],[GradeType]],B15+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E15=ItemTable[[#This Row],[GradeType]],B15+1,4000))</f>
+        <v>2004</v>
+      </c>
+      <c r="C16">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12004</v>
+      </c>
+      <c r="D16">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22004</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>30</v>
+      </c>
+      <c r="I16" cm="1">
+        <f t="array" ref="I16">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>7004</v>
+      </c>
+      <c r="K16" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>작은 십자가</v>
+      </c>
+      <c r="L16" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>공격 범위가 2 증가합니다.</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" cm="1">
+        <f t="array" ref="B17">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E16=ItemTable[[#This Row],[GradeType]],B16+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E16=ItemTable[[#This Row],[GradeType]],B16+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E16=ItemTable[[#This Row],[GradeType]],B16+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E16=ItemTable[[#This Row],[GradeType]],B16+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E16=ItemTable[[#This Row],[GradeType]],B16+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E16=ItemTable[[#This Row],[GradeType]],B16+1,4000))</f>
+        <v>2005</v>
+      </c>
+      <c r="C17">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12005</v>
+      </c>
+      <c r="D17">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22005</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>30</v>
+      </c>
+      <c r="I17" cm="1">
+        <f t="array" ref="I17">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>7005</v>
+      </c>
+      <c r="K17" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>목없는 갑옷</v>
+      </c>
+      <c r="L17" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>[하트]가 1개 증가합니다.</v>
+      </c>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" cm="1">
+        <f t="array" ref="B18">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E17=ItemTable[[#This Row],[GradeType]],B17+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E17=ItemTable[[#This Row],[GradeType]],B17+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E17=ItemTable[[#This Row],[GradeType]],B17+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E17=ItemTable[[#This Row],[GradeType]],B17+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E17=ItemTable[[#This Row],[GradeType]],B17+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E17=ItemTable[[#This Row],[GradeType]],B17+1,4000))</f>
+        <v>2006</v>
+      </c>
+      <c r="C18">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>12006</v>
+      </c>
+      <c r="D18">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>22006</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>30</v>
+      </c>
+      <c r="I18" cm="1">
+        <f t="array" ref="I18">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>7006</v>
+      </c>
+      <c r="K18" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>미정2</v>
+      </c>
+      <c r="L18" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>공 던지기 가능 개수가 1개 증가합니다.</v>
+      </c>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" cm="1">
+        <f t="array" ref="B19">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E18=ItemTable[[#This Row],[GradeType]],B18+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E18=ItemTable[[#This Row],[GradeType]],B18+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E18=ItemTable[[#This Row],[GradeType]],B18+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E18=ItemTable[[#This Row],[GradeType]],B18+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E18=ItemTable[[#This Row],[GradeType]],B18+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E18=ItemTable[[#This Row],[GradeType]],B18+1,4000))</f>
+        <v>3000</v>
+      </c>
+      <c r="C19">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13000</v>
+      </c>
+      <c r="D19">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I19" cm="1">
+        <f t="array" ref="I19">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8000</v>
+      </c>
+      <c r="K19" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>Dys : 0N Mk2</v>
+      </c>
+      <c r="L19" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>차징중에 공을 끌어당김</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" cm="1">
+        <f t="array" ref="B20">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E19=ItemTable[[#This Row],[GradeType]],B19+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E19=ItemTable[[#This Row],[GradeType]],B19+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E19=ItemTable[[#This Row],[GradeType]],B19+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E19=ItemTable[[#This Row],[GradeType]],B19+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E19=ItemTable[[#This Row],[GradeType]],B19+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E19=ItemTable[[#This Row],[GradeType]],B19+1,4000))</f>
+        <v>3001</v>
+      </c>
+      <c r="C20">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13001</v>
+      </c>
+      <c r="D20">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23001</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I20" cm="1">
+        <f t="array" ref="I20">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8001</v>
+      </c>
+      <c r="K20" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>무해한 불꽃</v>
+      </c>
+      <c r="L20" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>“실례지만 불타고 계십니다” 현재의 이동속도 비례하여 공격속도 증가</v>
+      </c>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" cm="1">
+        <f t="array" ref="B21">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E20=ItemTable[[#This Row],[GradeType]],B20+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E20=ItemTable[[#This Row],[GradeType]],B20+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E20=ItemTable[[#This Row],[GradeType]],B20+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E20=ItemTable[[#This Row],[GradeType]],B20+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E20=ItemTable[[#This Row],[GradeType]],B20+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E20=ItemTable[[#This Row],[GradeType]],B20+1,4000))</f>
+        <v>3002</v>
+      </c>
+      <c r="C21">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13002</v>
+      </c>
+      <c r="D21">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23002</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I21" cm="1">
+        <f t="array" ref="I21">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8002</v>
+      </c>
+      <c r="K21" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>롱기누스</v>
+      </c>
+      <c r="L21" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>[배트]로 쳐낸 공이 적을 관통합니다.</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" cm="1">
+        <f t="array" ref="B22">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E21=ItemTable[[#This Row],[GradeType]],B21+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E21=ItemTable[[#This Row],[GradeType]],B21+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E21=ItemTable[[#This Row],[GradeType]],B21+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E21=ItemTable[[#This Row],[GradeType]],B21+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E21=ItemTable[[#This Row],[GradeType]],B21+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E21=ItemTable[[#This Row],[GradeType]],B21+1,4000))</f>
+        <v>3003</v>
+      </c>
+      <c r="C22">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13003</v>
+      </c>
+      <c r="D22">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23003</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I22" cm="1">
+        <f t="array" ref="I22">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8003</v>
+      </c>
+      <c r="K22" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>석가면</v>
+      </c>
+      <c r="L22" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>[하트]가 1개 증가합니다. 이동속도, 공격속도가 10% 빨라집니다.</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" cm="1">
+        <f t="array" ref="B23">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E22=ItemTable[[#This Row],[GradeType]],B22+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E22=ItemTable[[#This Row],[GradeType]],B22+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E22=ItemTable[[#This Row],[GradeType]],B22+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E22=ItemTable[[#This Row],[GradeType]],B22+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E22=ItemTable[[#This Row],[GradeType]],B22+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E22=ItemTable[[#This Row],[GradeType]],B22+1,4000))</f>
+        <v>3004</v>
+      </c>
+      <c r="C23">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13004</v>
+      </c>
+      <c r="D23">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23004</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I23" cm="1">
+        <f t="array" ref="I23">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8004</v>
+      </c>
+      <c r="K23" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>거인의 주먹</v>
+      </c>
+      <c r="L23" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>최대 [하트] 1개 당 5% 만큼 피해량이 증가합니다.</v>
+      </c>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" cm="1">
+        <f t="array" ref="B24">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E23=ItemTable[[#This Row],[GradeType]],B23+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E23=ItemTable[[#This Row],[GradeType]],B23+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E23=ItemTable[[#This Row],[GradeType]],B23+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E23=ItemTable[[#This Row],[GradeType]],B23+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E23=ItemTable[[#This Row],[GradeType]],B23+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E23=ItemTable[[#This Row],[GradeType]],B23+1,4000))</f>
+        <v>3005</v>
+      </c>
+      <c r="C24">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13005</v>
+      </c>
+      <c r="D24">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23005</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I24" cm="1">
+        <f t="array" ref="I24">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8005</v>
+      </c>
+      <c r="K24" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>황금왕의 갑옷</v>
+      </c>
+      <c r="L24" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>골드를 20%씩 더 획득합니다.</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" cm="1">
+        <f t="array" ref="B25">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E24=ItemTable[[#This Row],[GradeType]],B24+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E24=ItemTable[[#This Row],[GradeType]],B24+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E24=ItemTable[[#This Row],[GradeType]],B24+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E24=ItemTable[[#This Row],[GradeType]],B24+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E24=ItemTable[[#This Row],[GradeType]],B24+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E24=ItemTable[[#This Row],[GradeType]],B24+1,4000))</f>
+        <v>3006</v>
+      </c>
+      <c r="C25">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13006</v>
+      </c>
+      <c r="D25">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23006</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I25" cm="1">
+        <f t="array" ref="I25">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8006</v>
+      </c>
+      <c r="K25" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>복사기</v>
+      </c>
+      <c r="L25" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>“공이 복사가 된다고” 공 던지기 개수가 2개 증가합니다.</v>
+      </c>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" cm="1">
+        <f t="array" ref="B26">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E25=ItemTable[[#This Row],[GradeType]],B25+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E25=ItemTable[[#This Row],[GradeType]],B25+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E25=ItemTable[[#This Row],[GradeType]],B25+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E25=ItemTable[[#This Row],[GradeType]],B25+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E25=ItemTable[[#This Row],[GradeType]],B25+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E25=ItemTable[[#This Row],[GradeType]],B25+1,4000))</f>
+        <v>3007</v>
+      </c>
+      <c r="C26">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13007</v>
+      </c>
+      <c r="D26">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23007</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I26" cm="1">
+        <f t="array" ref="I26">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8007</v>
+      </c>
+      <c r="K26" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>어른의 카드</v>
+      </c>
+      <c r="L26" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>소지중인 골드의 1%만큼 데미지 상승</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" cm="1">
+        <f t="array" ref="B27">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E26=ItemTable[[#This Row],[GradeType]],B26+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E26=ItemTable[[#This Row],[GradeType]],B26+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E26=ItemTable[[#This Row],[GradeType]],B26+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E26=ItemTable[[#This Row],[GradeType]],B26+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E26=ItemTable[[#This Row],[GradeType]],B26+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E26=ItemTable[[#This Row],[GradeType]],B26+1,4000))</f>
+        <v>3008</v>
+      </c>
+      <c r="C27">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13008</v>
+      </c>
+      <c r="D27">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23008</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I27" cm="1">
+        <f t="array" ref="I27">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8008</v>
+      </c>
+      <c r="K27" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>회광반조</v>
+      </c>
+      <c r="L27" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>빈 하트 1개당 피해량 5% 상승</v>
+      </c>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" cm="1">
+        <f t="array" ref="B28">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E27=ItemTable[[#This Row],[GradeType]],B27+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E27=ItemTable[[#This Row],[GradeType]],B27+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E27=ItemTable[[#This Row],[GradeType]],B27+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E27=ItemTable[[#This Row],[GradeType]],B27+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E27=ItemTable[[#This Row],[GradeType]],B27+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E27=ItemTable[[#This Row],[GradeType]],B27+1,4000))</f>
+        <v>3009</v>
+      </c>
+      <c r="C28">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13009</v>
+      </c>
+      <c r="D28">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23009</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I28" cm="1">
+        <f t="array" ref="I28">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8009</v>
+      </c>
+      <c r="K28" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>이카루스의 날개</v>
+      </c>
+      <c r="L28" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>RowCollider을 무시하고 이동함.</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" cm="1">
+        <f t="array" ref="B29">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E28=ItemTable[[#This Row],[GradeType]],B28+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E28=ItemTable[[#This Row],[GradeType]],B28+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E28=ItemTable[[#This Row],[GradeType]],B28+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E28=ItemTable[[#This Row],[GradeType]],B28+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E28=ItemTable[[#This Row],[GradeType]],B28+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E28=ItemTable[[#This Row],[GradeType]],B28+1,4000))</f>
+        <v>3010</v>
+      </c>
+      <c r="C29">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13010</v>
+      </c>
+      <c r="D29">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23010</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I29" cm="1">
+        <f t="array" ref="I29">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8010</v>
+      </c>
+      <c r="K29" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>신성한 수류탄</v>
+      </c>
+      <c r="L29" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>피해량이 20% 증가합니다.</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" cm="1">
+        <f t="array" ref="B30">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E29=ItemTable[[#This Row],[GradeType]],B29+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E29=ItemTable[[#This Row],[GradeType]],B29+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E29=ItemTable[[#This Row],[GradeType]],B29+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E29=ItemTable[[#This Row],[GradeType]],B29+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E29=ItemTable[[#This Row],[GradeType]],B29+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E29=ItemTable[[#This Row],[GradeType]],B29+1,4000))</f>
+        <v>3011</v>
+      </c>
+      <c r="C30">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13011</v>
+      </c>
+      <c r="D30">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23011</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I30" cm="1">
+        <f t="array" ref="I30">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8011</v>
+      </c>
+      <c r="K30" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>슈퍼콜드</v>
+      </c>
+      <c r="L30" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>이동하지 않을 때 시간이 멈춤</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" cm="1">
+        <f t="array" ref="B31">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E30=ItemTable[[#This Row],[GradeType]],B30+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E30=ItemTable[[#This Row],[GradeType]],B30+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E30=ItemTable[[#This Row],[GradeType]],B30+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E30=ItemTable[[#This Row],[GradeType]],B30+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E30=ItemTable[[#This Row],[GradeType]],B30+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E30=ItemTable[[#This Row],[GradeType]],B30+1,4000))</f>
+        <v>3012</v>
+      </c>
+      <c r="C31">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>13012</v>
+      </c>
+      <c r="D31">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>23012</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I31" cm="1">
+        <f t="array" ref="I31">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>8012</v>
+      </c>
+      <c r="K31" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>게이볼그</v>
+      </c>
+      <c r="L31" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>공을 칠 때 자동으로 가장 가까운 적을 향해 날라감</v>
+      </c>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" cm="1">
+        <f t="array" ref="B32">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E31=ItemTable[[#This Row],[GradeType]],B31+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E31=ItemTable[[#This Row],[GradeType]],B31+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E31=ItemTable[[#This Row],[GradeType]],B31+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E31=ItemTable[[#This Row],[GradeType]],B31+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E31=ItemTable[[#This Row],[GradeType]],B31+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E31=ItemTable[[#This Row],[GradeType]],B31+1,4000))</f>
+        <v>4000</v>
+      </c>
+      <c r="C32">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14000</v>
+      </c>
+      <c r="D32">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I32" cm="1">
+        <f t="array" ref="I32">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9000</v>
+      </c>
+      <c r="K32" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>불길한 깃발</v>
+      </c>
+      <c r="L32" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>이동속도가 30% 감소합니다. 차징 속도가 40% 빨라집니다.</v>
+      </c>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" cm="1">
+        <f t="array" ref="B33">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E32=ItemTable[[#This Row],[GradeType]],B32+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E32=ItemTable[[#This Row],[GradeType]],B32+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E32=ItemTable[[#This Row],[GradeType]],B32+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E32=ItemTable[[#This Row],[GradeType]],B32+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E32=ItemTable[[#This Row],[GradeType]],B32+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E32=ItemTable[[#This Row],[GradeType]],B32+1,4000))</f>
+        <v>4001</v>
+      </c>
+      <c r="C33">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14001</v>
+      </c>
+      <c r="D33">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24001</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I33" cm="1">
+        <f t="array" ref="I33">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9001</v>
+      </c>
+      <c r="K33" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>빗바랜 천가죽</v>
+      </c>
+      <c r="L33" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>이동속도가 20% 감소합니다. 피해량이 20% 감소합니다.</v>
+      </c>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" cm="1">
+        <f t="array" ref="B34">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E33=ItemTable[[#This Row],[GradeType]],B33+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E33=ItemTable[[#This Row],[GradeType]],B33+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E33=ItemTable[[#This Row],[GradeType]],B33+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E33=ItemTable[[#This Row],[GradeType]],B33+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E33=ItemTable[[#This Row],[GradeType]],B33+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E33=ItemTable[[#This Row],[GradeType]],B33+1,4000))</f>
+        <v>4002</v>
+      </c>
+      <c r="C34">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14002</v>
+      </c>
+      <c r="D34">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24002</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I34" cm="1">
+        <f t="array" ref="I34">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9002</v>
+      </c>
+      <c r="K34" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>나자렛의 몽키스패너</v>
+      </c>
+      <c r="L34" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>차징 속도가 40% 느려집니다. 대신 공을 튕겨내는 속도가 30% 상승합니다.</v>
+      </c>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" cm="1">
+        <f t="array" ref="B35">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E34=ItemTable[[#This Row],[GradeType]],B34+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E34=ItemTable[[#This Row],[GradeType]],B34+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E34=ItemTable[[#This Row],[GradeType]],B34+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E34=ItemTable[[#This Row],[GradeType]],B34+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E34=ItemTable[[#This Row],[GradeType]],B34+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E34=ItemTable[[#This Row],[GradeType]],B34+1,4000))</f>
+        <v>4003</v>
+      </c>
+      <c r="C35">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14003</v>
+      </c>
+      <c r="D35">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24003</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I35" cm="1">
+        <f t="array" ref="I35">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9003</v>
+      </c>
+      <c r="K35" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>저주받은 갑옷</v>
+      </c>
+      <c r="L35" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>[하트]가 3개 증가, 이동속도가 40% 느려집니다.</v>
+      </c>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" cm="1">
+        <f t="array" ref="B36">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E35=ItemTable[[#This Row],[GradeType]],B35+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E35=ItemTable[[#This Row],[GradeType]],B35+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E35=ItemTable[[#This Row],[GradeType]],B35+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E35=ItemTable[[#This Row],[GradeType]],B35+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E35=ItemTable[[#This Row],[GradeType]],B35+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E35=ItemTable[[#This Row],[GradeType]],B35+1,4000))</f>
+        <v>4004</v>
+      </c>
+      <c r="C36">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14004</v>
+      </c>
+      <c r="D36">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24004</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I36" cm="1">
+        <f t="array" ref="I36">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9004</v>
+      </c>
+      <c r="K36" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>유리 대포</v>
+      </c>
+      <c r="L36" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>[하트]가 3개 감소, 피해량이 35% 증가합니다.</v>
+      </c>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" cm="1">
+        <f t="array" ref="B37">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E36=ItemTable[[#This Row],[GradeType]],B36+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E36=ItemTable[[#This Row],[GradeType]],B36+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E36=ItemTable[[#This Row],[GradeType]],B36+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E36=ItemTable[[#This Row],[GradeType]],B36+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E36=ItemTable[[#This Row],[GradeType]],B36+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E36=ItemTable[[#This Row],[GradeType]],B36+1,4000))</f>
+        <v>4005</v>
+      </c>
+      <c r="C37">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14005</v>
+      </c>
+      <c r="D37">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24005</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I37" cm="1">
+        <f t="array" ref="I37">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9005</v>
+      </c>
+      <c r="K37" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>청개구리 총</v>
+      </c>
+      <c r="L37" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>공격을 반대로 합니다. 대신 피해량이 25% 증가합니다.</v>
+      </c>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="2:13">
+      <c r="B38" cm="1">
+        <f t="array" ref="B38">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E37=ItemTable[[#This Row],[GradeType]],B37+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E37=ItemTable[[#This Row],[GradeType]],B37+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E37=ItemTable[[#This Row],[GradeType]],B37+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E37=ItemTable[[#This Row],[GradeType]],B37+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E37=ItemTable[[#This Row],[GradeType]],B37+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E37=ItemTable[[#This Row],[GradeType]],B37+1,4000))</f>
+        <v>4006</v>
+      </c>
+      <c r="C38">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14006</v>
+      </c>
+      <c r="D38">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24006</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I38" cm="1">
+        <f t="array" ref="I38">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9006</v>
+      </c>
+      <c r="K38" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>불운의 황금상</v>
+      </c>
+      <c r="L38" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>더 이상 골드를 획득할 수 없습니다. 데미지가 30% 상승합니다.</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" cm="1">
+        <f t="array" ref="B39">_xlfn.IFS(ItemTable[[#This Row],[GradeType]]="Hp",IF(E38=ItemTable[[#This Row],[GradeType]],B38+1,10),
+ItemTable[[#This Row],[GradeType]]="Gold",IF(E38=ItemTable[[#This Row],[GradeType]],B38+1,20),
+ItemTable[[#This Row],[GradeType]]="Weapon",IF(E38=ItemTable[[#This Row],[GradeType]],B38+1,1000),
+ItemTable[[#This Row],[GradeType]]="Normal",IF(E38=ItemTable[[#This Row],[GradeType]],B38+1,2000),
+ItemTable[[#This Row],[GradeType]]="Rare",IF(E38=ItemTable[[#This Row],[GradeType]],B38+1,3000),
+ItemTable[[#This Row],[GradeType]]="Cursed",IF(E38=ItemTable[[#This Row],[GradeType]],B38+1,4000))</f>
+        <v>4007</v>
+      </c>
+      <c r="C39">
+        <f>ItemTable[[#This Row],[Index]]+10000</f>
+        <v>14007</v>
+      </c>
+      <c r="D39">
+        <f>ItemTable[[#This Row],[Index]]+20000</f>
+        <v>24007</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostHp]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <f>INDEX([1]!아이템가격[#Data],MATCH(MID(ItemTable[[#Headers],[CostGold]],5,10),[1]!아이템가격[재화],0),MATCH(ItemTable[[#This Row],[GradeType]],[1]!아이템가격[#Headers],0))
+*ItemTable[[#This Row],[Value]]</f>
+        <v>50</v>
+      </c>
+      <c r="I39" cm="1">
+        <f t="array" ref="I39">_xlfn.IFS(OR(ItemTable[[#This Row],[GradeType]]="Hp",ItemTable[[#This Row],[GradeType]]="Gold"),0,
+TRUE,5000+ItemTable[[#This Row],[Index]])</f>
+        <v>9007</v>
+      </c>
+      <c r="K39" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
+        <v>저주받은 테니스채</v>
+      </c>
+      <c r="L39" s="3" t="str">
+        <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Desc]],[1]!LocaleTable[Index],0))</f>
+        <v>공 던지기 개수 3개 감소. 직접 공격 데미지가 450% 상승합니다.</v>
+      </c>
+      <c r="M39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/_GameData/ItemGameData.xlsx
+++ b/_GameData/ItemGameData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Progect\1.UnityProject\CKProject\QTProto\_GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Unity\QT\_GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F231E6AF-75DD-4448-A2CE-FEF800C3EC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD665A3-5234-40DC-BDF7-C4A95B658DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{2B2D7236-FFCB-4194-B4B3-805CCD5640F4}"/>
+    <workbookView xWindow="28800" yWindow="7230" windowWidth="24885" windowHeight="15270" xr2:uid="{2B2D7236-FFCB-4194-B4B3-805CCD5640F4}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemGameData" sheetId="1" r:id="rId1"/>
@@ -39,16 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -117,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력이 높을수록 빨라짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,6 +122,16 @@
   </si>
   <si>
     <t>공격력 2배 증가, 공격 범위 2배 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Arts/UI/icon/item/item_05.png</t>
+  </si>
+  <si>
+    <t>Assets/Arts/UI/icon/item/item_17.png</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;체력&lt;/color&gt;&lt;color=white&gt;이 높을수록 빨라짐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,110 +823,111 @@
   <dimension ref="B1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="4" max="4" width="55.875" customWidth="1"/>
     <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="18.5" customWidth="1"/>
+    <col min="7" max="9" width="18.5" customWidth="1"/>
+    <col min="10" max="10" width="35.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="69.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3">
         <v>1000</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -933,10 +936,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>1000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
       <c r="K3" s="3" t="e">
         <f>INDEX([1]!LocaleTable[LocaleKR],MATCH(ItemTable[[#This Row],[Name]],[1]!LocaleTable[Index],0))</f>
@@ -948,18 +954,18 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13">
       <c r="B4">
         <v>1001</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -968,186 +974,189 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>1001</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13">
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13">
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13">
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13">
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13">
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13">
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13">
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13">
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13">
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13">
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13">
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:13">
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:13">
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:13">
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:13">
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:13">
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:13">
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:13">
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:13">
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:13">
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="4"/>
     </row>
-    <row r="26" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="11:13">
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="11:13">
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="11:13">
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="11:13">
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="11:13">
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="11:13">
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="11:13">
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="11:13">
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="11:13">
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="11:13">
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="11:13">
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="11:13">
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="11:13">
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="11:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="11:13">
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="4"/>
